--- a/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
+++ b/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2020" sheetId="7" r:id="rId1"/>
@@ -3062,12 +3062,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3078,45 +3117,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3282,7 +3282,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3294,7 +3294,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3317,14 +3317,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3412,7 +3412,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3424,7 +3424,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3447,14 +3447,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3486,7 +3486,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3498,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3521,14 +3521,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -5043,11 +5043,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5059,73 +5059,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
-      <c r="P1" s="300"/>
-      <c r="Q1" s="300"/>
-      <c r="R1" s="300"/>
-      <c r="S1" s="300"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
+      <c r="Q1" s="294"/>
+      <c r="R1" s="294"/>
+      <c r="S1" s="294"/>
     </row>
     <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
-      <c r="A2" s="301" t="s">
+      <c r="A2" s="295" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="301"/>
-      <c r="Q2" s="301"/>
-      <c r="R2" s="301"/>
-      <c r="S2" s="301"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="295"/>
+      <c r="H2" s="295"/>
+      <c r="I2" s="295"/>
+      <c r="J2" s="295"/>
+      <c r="K2" s="295"/>
+      <c r="L2" s="295"/>
+      <c r="M2" s="295"/>
+      <c r="N2" s="295"/>
+      <c r="O2" s="295"/>
+      <c r="P2" s="295"/>
+      <c r="Q2" s="295"/>
+      <c r="R2" s="295"/>
+      <c r="S2" s="295"/>
     </row>
     <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="302" t="s">
+      <c r="A3" s="296" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="303"/>
-      <c r="S3" s="304"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="297"/>
+      <c r="K3" s="297"/>
+      <c r="L3" s="297"/>
+      <c r="M3" s="297"/>
+      <c r="N3" s="297"/>
+      <c r="O3" s="297"/>
+      <c r="P3" s="297"/>
+      <c r="Q3" s="297"/>
+      <c r="R3" s="297"/>
+      <c r="S3" s="298"/>
       <c r="U3" s="116"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -5134,58 +5134,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="206" customFormat="1">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="299" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="307" t="s">
+      <c r="B4" s="301" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="294" t="s">
+      <c r="D4" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="294" t="s">
+      <c r="F4" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="294" t="s">
+      <c r="G4" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="294" t="s">
+      <c r="H4" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="294" t="s">
+      <c r="I4" s="303" t="s">
         <v>132</v>
       </c>
-      <c r="J4" s="294" t="s">
+      <c r="J4" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="294" t="s">
+      <c r="K4" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="294" t="s">
+      <c r="L4" s="303" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="294" t="s">
+      <c r="M4" s="303" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="294" t="s">
+      <c r="N4" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="296" t="s">
+      <c r="O4" s="309" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="311" t="s">
         <v>113</v>
       </c>
-      <c r="Q4" s="311" t="s">
+      <c r="Q4" s="307" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="309" t="s">
+      <c r="R4" s="305" t="s">
         <v>114</v>
       </c>
       <c r="S4" s="205" t="s">
@@ -5198,24 +5198,24 @@
       <c r="Y4" s="208"/>
     </row>
     <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="306"/>
-      <c r="B5" s="308"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="295"/>
-      <c r="N5" s="295"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="299"/>
-      <c r="Q5" s="312"/>
-      <c r="R5" s="310"/>
+      <c r="A5" s="300"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="304"/>
+      <c r="D5" s="304"/>
+      <c r="E5" s="304"/>
+      <c r="F5" s="304"/>
+      <c r="G5" s="304"/>
+      <c r="H5" s="304"/>
+      <c r="I5" s="304"/>
+      <c r="J5" s="304"/>
+      <c r="K5" s="304"/>
+      <c r="L5" s="304"/>
+      <c r="M5" s="304"/>
+      <c r="N5" s="304"/>
+      <c r="O5" s="310"/>
+      <c r="P5" s="312"/>
+      <c r="Q5" s="308"/>
+      <c r="R5" s="306"/>
       <c r="S5" s="210" t="s">
         <v>115</v>
       </c>
@@ -8606,6 +8606,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -8622,11 +8627,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19865,8 +19865,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>

--- a/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
+++ b/2020/December/All Details/31.12.2020/MC Bank Statement Dec-2020.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Dec 2020" sheetId="7" r:id="rId1"/>
-    <sheet name="Expence" sheetId="15" r:id="rId2"/>
-    <sheet name="Balance Transfer" sheetId="14" r:id="rId3"/>
+    <sheet name="Balance Transfer" sheetId="14" r:id="rId2"/>
+    <sheet name="Expence" sheetId="15" r:id="rId3"/>
     <sheet name="CAPITAL" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -3062,6 +3062,51 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3118,51 +3163,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3345,57 +3345,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>324620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>276226</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4286250" y="28576"/>
-          <a:ext cx="305570" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1260477</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -3538,6 +3487,57 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="28576"/>
+          <a:ext cx="305570" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5041,3602 +5041,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z320"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="201"/>
-    <col min="2" max="2" width="9.140625" style="82"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="202"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="294" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
-      <c r="Q1" s="294"/>
-      <c r="R1" s="294"/>
-      <c r="S1" s="294"/>
-    </row>
-    <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
-      <c r="A2" s="295" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="295"/>
-      <c r="C2" s="295"/>
-      <c r="D2" s="295"/>
-      <c r="E2" s="295"/>
-      <c r="F2" s="295"/>
-      <c r="G2" s="295"/>
-      <c r="H2" s="295"/>
-      <c r="I2" s="295"/>
-      <c r="J2" s="295"/>
-      <c r="K2" s="295"/>
-      <c r="L2" s="295"/>
-      <c r="M2" s="295"/>
-      <c r="N2" s="295"/>
-      <c r="O2" s="295"/>
-      <c r="P2" s="295"/>
-      <c r="Q2" s="295"/>
-      <c r="R2" s="295"/>
-      <c r="S2" s="295"/>
-    </row>
-    <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="296" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="297"/>
-      <c r="K3" s="297"/>
-      <c r="L3" s="297"/>
-      <c r="M3" s="297"/>
-      <c r="N3" s="297"/>
-      <c r="O3" s="297"/>
-      <c r="P3" s="297"/>
-      <c r="Q3" s="297"/>
-      <c r="R3" s="297"/>
-      <c r="S3" s="298"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="29"/>
-    </row>
-    <row r="4" spans="1:26" s="206" customFormat="1">
-      <c r="A4" s="299" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="301" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="303" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="303" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="303" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="303" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="303" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="303" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="303" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4" s="303" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="303" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="303" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="303" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="303" t="s">
-        <v>112</v>
-      </c>
-      <c r="O4" s="309" t="s">
-        <v>212</v>
-      </c>
-      <c r="P4" s="311" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="307" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="305" t="s">
-        <v>114</v>
-      </c>
-      <c r="S4" s="205" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4" s="207"/>
-      <c r="V4" s="208"/>
-      <c r="W4" s="209"/>
-      <c r="X4" s="208"/>
-      <c r="Y4" s="208"/>
-    </row>
-    <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="300"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="304"/>
-      <c r="D5" s="304"/>
-      <c r="E5" s="304"/>
-      <c r="F5" s="304"/>
-      <c r="G5" s="304"/>
-      <c r="H5" s="304"/>
-      <c r="I5" s="304"/>
-      <c r="J5" s="304"/>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
-      <c r="M5" s="304"/>
-      <c r="N5" s="304"/>
-      <c r="O5" s="310"/>
-      <c r="P5" s="312"/>
-      <c r="Q5" s="308"/>
-      <c r="R5" s="306"/>
-      <c r="S5" s="210" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5" s="211"/>
-      <c r="V5" s="212"/>
-      <c r="W5" s="212"/>
-      <c r="X5" s="212"/>
-      <c r="Y5" s="212"/>
-      <c r="Z5" s="213"/>
-    </row>
-    <row r="6" spans="1:26" s="22" customFormat="1">
-      <c r="A6" s="214" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" s="215">
-        <v>1500</v>
-      </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="216">
-        <v>725</v>
-      </c>
-      <c r="E6" s="216"/>
-      <c r="F6" s="216"/>
-      <c r="G6" s="216">
-        <v>530</v>
-      </c>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="217">
-        <v>80</v>
-      </c>
-      <c r="K6" s="216">
-        <v>400</v>
-      </c>
-      <c r="L6" s="216"/>
-      <c r="M6" s="216"/>
-      <c r="N6" s="256">
-        <v>70</v>
-      </c>
-      <c r="O6" s="216"/>
-      <c r="P6" s="216"/>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="218"/>
-      <c r="S6" s="219">
-        <f t="shared" ref="S6:S36" si="0">SUM(B6:R6)</f>
-        <v>3305</v>
-      </c>
-      <c r="T6" s="220"/>
-      <c r="U6" s="221"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="5"/>
-    </row>
-    <row r="7" spans="1:26" s="22" customFormat="1">
-      <c r="A7" s="214" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="215"/>
-      <c r="C7" s="215">
-        <v>1170</v>
-      </c>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216">
-        <v>90</v>
-      </c>
-      <c r="F7" s="216"/>
-      <c r="G7" s="216">
-        <v>460</v>
-      </c>
-      <c r="H7" s="216">
-        <v>145</v>
-      </c>
-      <c r="I7" s="216"/>
-      <c r="J7" s="217">
-        <v>60</v>
-      </c>
-      <c r="K7" s="216">
-        <v>480</v>
-      </c>
-      <c r="L7" s="216"/>
-      <c r="M7" s="216"/>
-      <c r="N7" s="256">
-        <v>20</v>
-      </c>
-      <c r="O7" s="216"/>
-      <c r="P7" s="216"/>
-      <c r="Q7" s="216"/>
-      <c r="R7" s="218">
-        <v>100</v>
-      </c>
-      <c r="S7" s="219">
-        <f t="shared" si="0"/>
-        <v>2525</v>
-      </c>
-      <c r="T7" s="220"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-    </row>
-    <row r="8" spans="1:26" s="22" customFormat="1">
-      <c r="A8" s="214" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="222">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="215"/>
-      <c r="D8" s="223"/>
-      <c r="E8" s="223">
-        <v>420</v>
-      </c>
-      <c r="F8" s="223">
-        <v>480</v>
-      </c>
-      <c r="G8" s="223">
-        <v>730</v>
-      </c>
-      <c r="H8" s="223">
-        <v>150</v>
-      </c>
-      <c r="I8" s="223"/>
-      <c r="J8" s="224">
-        <v>60</v>
-      </c>
-      <c r="K8" s="223">
-        <v>480</v>
-      </c>
-      <c r="L8" s="223"/>
-      <c r="M8" s="223"/>
-      <c r="N8" s="257">
-        <v>20</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="223"/>
-      <c r="Q8" s="223"/>
-      <c r="R8" s="225"/>
-      <c r="S8" s="219">
-        <f>SUM(B8:R8)</f>
-        <v>3340</v>
-      </c>
-      <c r="T8" s="220"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" s="22" customFormat="1">
-      <c r="A9" s="214" t="s">
-        <v>178</v>
-      </c>
-      <c r="B9" s="222">
-        <v>1500</v>
-      </c>
-      <c r="C9" s="215">
-        <v>400</v>
-      </c>
-      <c r="D9" s="223"/>
-      <c r="E9" s="223">
-        <v>1610</v>
-      </c>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223">
-        <v>260</v>
-      </c>
-      <c r="H9" s="223">
-        <v>150</v>
-      </c>
-      <c r="I9" s="223"/>
-      <c r="J9" s="224">
-        <v>90</v>
-      </c>
-      <c r="K9" s="223">
-        <v>480</v>
-      </c>
-      <c r="L9" s="223"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="257">
-        <v>20</v>
-      </c>
-      <c r="O9" s="223"/>
-      <c r="P9" s="223"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="225"/>
-      <c r="S9" s="219">
-        <f t="shared" si="0"/>
-        <v>4510</v>
-      </c>
-      <c r="T9" s="220"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-    </row>
-    <row r="10" spans="1:26" s="22" customFormat="1">
-      <c r="A10" s="214" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="222">
-        <v>500</v>
-      </c>
-      <c r="C10" s="215"/>
-      <c r="D10" s="223"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223">
-        <v>210</v>
-      </c>
-      <c r="H10" s="223">
-        <v>110</v>
-      </c>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223">
-        <v>70</v>
-      </c>
-      <c r="K10" s="223">
-        <v>400</v>
-      </c>
-      <c r="L10" s="223"/>
-      <c r="M10" s="223"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="223"/>
-      <c r="P10" s="223"/>
-      <c r="Q10" s="223"/>
-      <c r="R10" s="225"/>
-      <c r="S10" s="219">
-        <f t="shared" si="0"/>
-        <v>1290</v>
-      </c>
-      <c r="T10" s="220"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="5"/>
-    </row>
-    <row r="11" spans="1:26" s="22" customFormat="1">
-      <c r="A11" s="214" t="s">
-        <v>182</v>
-      </c>
-      <c r="B11" s="222">
-        <v>500</v>
-      </c>
-      <c r="C11" s="215">
-        <v>400</v>
-      </c>
-      <c r="D11" s="223"/>
-      <c r="E11" s="223">
-        <v>130</v>
-      </c>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223">
-        <v>110</v>
-      </c>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223">
-        <v>30</v>
-      </c>
-      <c r="K11" s="223">
-        <v>400</v>
-      </c>
-      <c r="L11" s="223"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="257">
-        <v>20</v>
-      </c>
-      <c r="O11" s="223"/>
-      <c r="P11" s="223"/>
-      <c r="Q11" s="223"/>
-      <c r="R11" s="225"/>
-      <c r="S11" s="219">
-        <f t="shared" si="0"/>
-        <v>1590</v>
-      </c>
-      <c r="T11" s="220"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-    </row>
-    <row r="12" spans="1:26" s="22" customFormat="1">
-      <c r="A12" s="214" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="222">
-        <v>1500</v>
-      </c>
-      <c r="C12" s="215"/>
-      <c r="D12" s="223"/>
-      <c r="E12" s="223"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223">
-        <v>430</v>
-      </c>
-      <c r="H12" s="223">
-        <v>100</v>
-      </c>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223">
-        <v>30</v>
-      </c>
-      <c r="K12" s="223">
-        <v>480</v>
-      </c>
-      <c r="L12" s="223"/>
-      <c r="M12" s="223"/>
-      <c r="N12" s="257">
-        <v>20</v>
-      </c>
-      <c r="O12" s="223"/>
-      <c r="P12" s="223"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="225"/>
-      <c r="S12" s="219">
-        <f t="shared" si="0"/>
-        <v>2560</v>
-      </c>
-      <c r="T12" s="220"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="5"/>
-    </row>
-    <row r="13" spans="1:26" s="22" customFormat="1">
-      <c r="A13" s="214" t="s">
-        <v>184</v>
-      </c>
-      <c r="B13" s="222">
-        <v>500</v>
-      </c>
-      <c r="C13" s="215"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223">
-        <v>170</v>
-      </c>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223">
-        <v>310</v>
-      </c>
-      <c r="H13" s="223">
-        <v>130</v>
-      </c>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223">
-        <v>30</v>
-      </c>
-      <c r="K13" s="223">
-        <v>480</v>
-      </c>
-      <c r="L13" s="226"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="257">
-        <v>20</v>
-      </c>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="225"/>
-      <c r="S13" s="219">
-        <f t="shared" si="0"/>
-        <v>1640</v>
-      </c>
-      <c r="T13" s="220"/>
-      <c r="U13" s="221"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-    </row>
-    <row r="14" spans="1:26" s="22" customFormat="1">
-      <c r="A14" s="214" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="222">
-        <v>500</v>
-      </c>
-      <c r="C14" s="215"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223">
-        <v>300</v>
-      </c>
-      <c r="G14" s="223">
-        <v>110</v>
-      </c>
-      <c r="H14" s="223">
-        <v>120</v>
-      </c>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223">
-        <v>30</v>
-      </c>
-      <c r="K14" s="223">
-        <v>480</v>
-      </c>
-      <c r="L14" s="227"/>
-      <c r="M14" s="223"/>
-      <c r="N14" s="257">
-        <v>20</v>
-      </c>
-      <c r="O14" s="223"/>
-      <c r="P14" s="223"/>
-      <c r="Q14" s="223"/>
-      <c r="R14" s="225"/>
-      <c r="S14" s="219">
-        <f t="shared" si="0"/>
-        <v>1560</v>
-      </c>
-      <c r="T14" s="220"/>
-      <c r="U14" s="228"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="5"/>
-    </row>
-    <row r="15" spans="1:26" s="22" customFormat="1">
-      <c r="A15" s="214" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="222">
-        <v>1600</v>
-      </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223">
-        <v>90</v>
-      </c>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223">
-        <v>110</v>
-      </c>
-      <c r="H15" s="223">
-        <v>140</v>
-      </c>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223">
-        <v>30</v>
-      </c>
-      <c r="K15" s="223">
-        <v>480</v>
-      </c>
-      <c r="L15" s="216"/>
-      <c r="M15" s="223"/>
-      <c r="N15" s="257">
-        <v>20</v>
-      </c>
-      <c r="O15" s="223"/>
-      <c r="P15" s="223"/>
-      <c r="Q15" s="223"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="219">
-        <f t="shared" si="0"/>
-        <v>2470</v>
-      </c>
-      <c r="T15" s="220"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-    </row>
-    <row r="16" spans="1:26" s="22" customFormat="1">
-      <c r="A16" s="214" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="222">
-        <v>500</v>
-      </c>
-      <c r="C16" s="215"/>
-      <c r="D16" s="223">
-        <v>290</v>
-      </c>
-      <c r="E16" s="223"/>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223">
-        <v>210</v>
-      </c>
-      <c r="H16" s="223">
-        <v>160</v>
-      </c>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223">
-        <v>30</v>
-      </c>
-      <c r="K16" s="223">
-        <v>480</v>
-      </c>
-      <c r="L16" s="223"/>
-      <c r="M16" s="223"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="223"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="225"/>
-      <c r="S16" s="219">
-        <f t="shared" si="0"/>
-        <v>1670</v>
-      </c>
-      <c r="T16" s="220"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="5"/>
-    </row>
-    <row r="17" spans="1:25" s="22" customFormat="1">
-      <c r="A17" s="214" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="222">
-        <v>500</v>
-      </c>
-      <c r="C17" s="215"/>
-      <c r="D17" s="223"/>
-      <c r="E17" s="223">
-        <v>50</v>
-      </c>
-      <c r="F17" s="223">
-        <v>50</v>
-      </c>
-      <c r="G17" s="223">
-        <v>110</v>
-      </c>
-      <c r="H17" s="223">
-        <v>120</v>
-      </c>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223">
-        <v>30</v>
-      </c>
-      <c r="K17" s="223">
-        <v>480</v>
-      </c>
-      <c r="L17" s="223"/>
-      <c r="M17" s="223"/>
-      <c r="N17" s="257">
-        <v>20</v>
-      </c>
-      <c r="O17" s="223"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="225"/>
-      <c r="S17" s="219">
-        <f t="shared" si="0"/>
-        <v>1360</v>
-      </c>
-      <c r="T17" s="220"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-    </row>
-    <row r="18" spans="1:25" s="22" customFormat="1">
-      <c r="A18" s="214" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="222">
-        <v>1500</v>
-      </c>
-      <c r="C18" s="215"/>
-      <c r="D18" s="223"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223">
-        <v>450</v>
-      </c>
-      <c r="H18" s="223">
-        <v>140</v>
-      </c>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223">
-        <v>30</v>
-      </c>
-      <c r="K18" s="223">
-        <v>480</v>
-      </c>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="257">
-        <v>40</v>
-      </c>
-      <c r="O18" s="223"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="225"/>
-      <c r="S18" s="219">
-        <f t="shared" si="0"/>
-        <v>2640</v>
-      </c>
-      <c r="T18" s="220"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="5"/>
-    </row>
-    <row r="19" spans="1:25" s="22" customFormat="1">
-      <c r="A19" s="214" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="222">
-        <v>500</v>
-      </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223">
-        <v>210</v>
-      </c>
-      <c r="H19" s="223">
-        <v>100</v>
-      </c>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223">
-        <v>20</v>
-      </c>
-      <c r="K19" s="223">
-        <v>480</v>
-      </c>
-      <c r="L19" s="223"/>
-      <c r="M19" s="223">
-        <v>933</v>
-      </c>
-      <c r="N19" s="258"/>
-      <c r="O19" s="223"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="223"/>
-      <c r="R19" s="225"/>
-      <c r="S19" s="219">
-        <f t="shared" si="0"/>
-        <v>2243</v>
-      </c>
-      <c r="T19" s="220"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-    </row>
-    <row r="20" spans="1:25" s="22" customFormat="1">
-      <c r="A20" s="214" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20" s="222">
-        <v>500</v>
-      </c>
-      <c r="C20" s="215"/>
-      <c r="D20" s="223">
-        <v>50</v>
-      </c>
-      <c r="E20" s="223">
-        <v>50</v>
-      </c>
-      <c r="F20" s="257"/>
-      <c r="G20" s="223">
-        <v>110</v>
-      </c>
-      <c r="H20" s="223">
-        <v>190</v>
-      </c>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223">
-        <v>30</v>
-      </c>
-      <c r="K20" s="223">
-        <v>480</v>
-      </c>
-      <c r="L20" s="223"/>
-      <c r="M20" s="223"/>
-      <c r="N20" s="257">
-        <v>20</v>
-      </c>
-      <c r="O20" s="223"/>
-      <c r="P20" s="223"/>
-      <c r="Q20" s="223"/>
-      <c r="R20" s="225"/>
-      <c r="S20" s="219">
-        <f t="shared" si="0"/>
-        <v>1430</v>
-      </c>
-      <c r="T20" s="220"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="5"/>
-    </row>
-    <row r="21" spans="1:25" s="22" customFormat="1">
-      <c r="A21" s="214" t="s">
-        <v>194</v>
-      </c>
-      <c r="B21" s="222">
-        <v>1950</v>
-      </c>
-      <c r="C21" s="215">
-        <v>400</v>
-      </c>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223">
-        <v>110</v>
-      </c>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223">
-        <v>20</v>
-      </c>
-      <c r="K21" s="223">
-        <v>480</v>
-      </c>
-      <c r="L21" s="223"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="257">
-        <v>20</v>
-      </c>
-      <c r="O21" s="223"/>
-      <c r="P21" s="223"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="225">
-        <v>50</v>
-      </c>
-      <c r="S21" s="219">
-        <f t="shared" si="0"/>
-        <v>3030</v>
-      </c>
-      <c r="T21" s="220"/>
-      <c r="U21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" s="22" customFormat="1">
-      <c r="A22" s="214" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="222">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="215">
-        <v>400</v>
-      </c>
-      <c r="D22" s="223"/>
-      <c r="E22" s="223">
-        <v>50</v>
-      </c>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223">
-        <v>210</v>
-      </c>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223">
-        <v>20</v>
-      </c>
-      <c r="K22" s="223">
-        <v>480</v>
-      </c>
-      <c r="L22" s="223"/>
-      <c r="M22" s="223"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="223"/>
-      <c r="P22" s="223"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="225"/>
-      <c r="S22" s="219">
-        <f t="shared" si="0"/>
-        <v>2160</v>
-      </c>
-      <c r="T22" s="220"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" s="230" customFormat="1">
-      <c r="A23" s="214" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="222">
-        <v>300</v>
-      </c>
-      <c r="C23" s="215"/>
-      <c r="D23" s="223">
-        <v>35</v>
-      </c>
-      <c r="E23" s="223"/>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223">
-        <v>110</v>
-      </c>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223">
-        <v>40</v>
-      </c>
-      <c r="K23" s="223">
-        <v>480</v>
-      </c>
-      <c r="L23" s="223"/>
-      <c r="M23" s="223"/>
-      <c r="N23" s="257">
-        <v>50</v>
-      </c>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="225"/>
-      <c r="S23" s="219">
-        <f t="shared" si="0"/>
-        <v>1015</v>
-      </c>
-      <c r="T23" s="229"/>
-      <c r="U23" s="7"/>
-    </row>
-    <row r="24" spans="1:25" s="22" customFormat="1">
-      <c r="A24" s="214" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="222">
-        <v>1000</v>
-      </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223">
-        <v>500</v>
-      </c>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223">
-        <v>280</v>
-      </c>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223">
-        <v>30</v>
-      </c>
-      <c r="K24" s="223">
-        <v>480</v>
-      </c>
-      <c r="L24" s="223"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="257">
-        <v>20</v>
-      </c>
-      <c r="O24" s="223"/>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="225"/>
-      <c r="S24" s="219">
-        <f t="shared" si="0"/>
-        <v>2310</v>
-      </c>
-      <c r="T24" s="220"/>
-      <c r="U24" s="7"/>
-      <c r="W24" s="231"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-    </row>
-    <row r="25" spans="1:25" s="230" customFormat="1">
-      <c r="A25" s="214" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="222">
-        <v>1000</v>
-      </c>
-      <c r="C25" s="215">
-        <v>450</v>
-      </c>
-      <c r="D25" s="223">
-        <v>50</v>
-      </c>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223">
-        <v>210</v>
-      </c>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223">
-        <v>30</v>
-      </c>
-      <c r="K25" s="223">
-        <v>480</v>
-      </c>
-      <c r="L25" s="223"/>
-      <c r="M25" s="223"/>
-      <c r="N25" s="257">
-        <v>20</v>
-      </c>
-      <c r="O25" s="223"/>
-      <c r="P25" s="223"/>
-      <c r="Q25" s="223"/>
-      <c r="R25" s="225">
-        <v>200</v>
-      </c>
-      <c r="S25" s="219">
-        <f t="shared" si="0"/>
-        <v>2440</v>
-      </c>
-      <c r="T25" s="229"/>
-      <c r="U25" s="7"/>
-    </row>
-    <row r="26" spans="1:25" s="22" customFormat="1">
-      <c r="A26" s="214" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" s="222">
-        <v>800</v>
-      </c>
-      <c r="C26" s="215"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223">
-        <v>1830</v>
-      </c>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223">
-        <v>180</v>
-      </c>
-      <c r="H26" s="223">
-        <v>215</v>
-      </c>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223">
-        <v>40</v>
-      </c>
-      <c r="K26" s="223">
-        <v>480</v>
-      </c>
-      <c r="L26" s="223"/>
-      <c r="M26" s="223"/>
-      <c r="N26" s="257">
-        <v>20</v>
-      </c>
-      <c r="O26" s="223"/>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="225">
-        <v>200</v>
-      </c>
-      <c r="S26" s="219">
-        <f t="shared" si="0"/>
-        <v>3765</v>
-      </c>
-      <c r="T26" s="220"/>
-      <c r="U26" s="7"/>
-    </row>
-    <row r="27" spans="1:25" s="22" customFormat="1">
-      <c r="A27" s="214" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" s="222">
-        <v>1050</v>
-      </c>
-      <c r="C27" s="215">
-        <v>400</v>
-      </c>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223">
-        <v>85</v>
-      </c>
-      <c r="G27" s="223">
-        <v>170</v>
-      </c>
-      <c r="H27" s="223">
-        <v>180</v>
-      </c>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223">
-        <v>30</v>
-      </c>
-      <c r="K27" s="223">
-        <v>620</v>
-      </c>
-      <c r="L27" s="223"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="257">
-        <v>20</v>
-      </c>
-      <c r="O27" s="223"/>
-      <c r="P27" s="223"/>
-      <c r="Q27" s="223"/>
-      <c r="R27" s="225">
-        <v>500</v>
-      </c>
-      <c r="S27" s="219">
-        <f t="shared" si="0"/>
-        <v>3055</v>
-      </c>
-      <c r="T27" s="220"/>
-      <c r="U27" s="7"/>
-    </row>
-    <row r="28" spans="1:25" s="22" customFormat="1">
-      <c r="A28" s="214" t="s">
-        <v>206</v>
-      </c>
-      <c r="B28" s="222">
-        <v>1500</v>
-      </c>
-      <c r="C28" s="215">
-        <v>400</v>
-      </c>
-      <c r="D28" s="223">
-        <v>1200</v>
-      </c>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223">
-        <v>310</v>
-      </c>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223">
-        <v>30</v>
-      </c>
-      <c r="K28" s="223">
-        <v>480</v>
-      </c>
-      <c r="L28" s="223"/>
-      <c r="M28" s="223"/>
-      <c r="N28" s="257"/>
-      <c r="O28" s="223"/>
-      <c r="P28" s="223"/>
-      <c r="Q28" s="223"/>
-      <c r="R28" s="225">
-        <v>100</v>
-      </c>
-      <c r="S28" s="219">
-        <f t="shared" si="0"/>
-        <v>4020</v>
-      </c>
-      <c r="T28" s="220"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="232"/>
-      <c r="W28" s="232"/>
-    </row>
-    <row r="29" spans="1:25" s="22" customFormat="1">
-      <c r="A29" s="214" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="222">
-        <v>300</v>
-      </c>
-      <c r="C29" s="215"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223">
-        <v>110</v>
-      </c>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223">
-        <v>20</v>
-      </c>
-      <c r="K29" s="223">
-        <v>480</v>
-      </c>
-      <c r="L29" s="223"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="257">
-        <v>60</v>
-      </c>
-      <c r="O29" s="223"/>
-      <c r="P29" s="223"/>
-      <c r="Q29" s="223"/>
-      <c r="R29" s="225">
-        <v>100</v>
-      </c>
-      <c r="S29" s="219">
-        <f t="shared" si="0"/>
-        <v>1070</v>
-      </c>
-      <c r="T29" s="220"/>
-      <c r="U29" s="232"/>
-      <c r="V29" s="233"/>
-      <c r="W29" s="233"/>
-    </row>
-    <row r="30" spans="1:25" s="22" customFormat="1">
-      <c r="A30" s="214" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="222">
-        <v>1000</v>
-      </c>
-      <c r="C30" s="215"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="223">
-        <v>40</v>
-      </c>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223">
-        <v>180</v>
-      </c>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223">
-        <v>30</v>
-      </c>
-      <c r="K30" s="223">
-        <v>480</v>
-      </c>
-      <c r="L30" s="223"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="257">
-        <v>20</v>
-      </c>
-      <c r="O30" s="223"/>
-      <c r="P30" s="223"/>
-      <c r="Q30" s="223"/>
-      <c r="R30" s="225">
-        <v>1900</v>
-      </c>
-      <c r="S30" s="219">
-        <f t="shared" si="0"/>
-        <v>3650</v>
-      </c>
-      <c r="T30" s="220"/>
-      <c r="U30" s="232"/>
-      <c r="V30" s="232"/>
-      <c r="W30" s="232"/>
-    </row>
-    <row r="31" spans="1:25" s="22" customFormat="1">
-      <c r="A31" s="214" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" s="222">
-        <v>1500</v>
-      </c>
-      <c r="C31" s="215"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223">
-        <v>210</v>
-      </c>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="234">
-        <v>30</v>
-      </c>
-      <c r="K31" s="223">
-        <v>480</v>
-      </c>
-      <c r="L31" s="223"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="257">
-        <v>20</v>
-      </c>
-      <c r="O31" s="223"/>
-      <c r="P31" s="223"/>
-      <c r="Q31" s="223"/>
-      <c r="R31" s="225">
-        <v>100</v>
-      </c>
-      <c r="S31" s="219">
-        <f t="shared" si="0"/>
-        <v>2340</v>
-      </c>
-      <c r="T31" s="220"/>
-    </row>
-    <row r="32" spans="1:25" s="230" customFormat="1">
-      <c r="A32" s="214" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="222">
-        <v>300</v>
-      </c>
-      <c r="C32" s="215"/>
-      <c r="D32" s="223"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223">
-        <v>110</v>
-      </c>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223">
-        <v>30</v>
-      </c>
-      <c r="K32" s="223">
-        <v>480</v>
-      </c>
-      <c r="L32" s="223">
-        <v>799</v>
-      </c>
-      <c r="M32" s="223"/>
-      <c r="N32" s="257">
-        <v>100</v>
-      </c>
-      <c r="O32" s="223">
-        <v>1500</v>
-      </c>
-      <c r="P32" s="223">
-        <v>10000</v>
-      </c>
-      <c r="Q32" s="223"/>
-      <c r="R32" s="225">
-        <v>100</v>
-      </c>
-      <c r="S32" s="219">
-        <f t="shared" si="0"/>
-        <v>13419</v>
-      </c>
-      <c r="T32" s="229"/>
-    </row>
-    <row r="33" spans="1:20" s="22" customFormat="1">
-      <c r="A33" s="214"/>
-      <c r="B33" s="222"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="223"/>
-      <c r="L33" s="223"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="257"/>
-      <c r="O33" s="223"/>
-      <c r="P33" s="223"/>
-      <c r="Q33" s="223"/>
-      <c r="R33" s="225"/>
-      <c r="S33" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="220"/>
-    </row>
-    <row r="34" spans="1:20" s="22" customFormat="1">
-      <c r="A34" s="214"/>
-      <c r="B34" s="222"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="223"/>
-      <c r="L34" s="223"/>
-      <c r="M34" s="223"/>
-      <c r="N34" s="257"/>
-      <c r="O34" s="223"/>
-      <c r="P34" s="223"/>
-      <c r="Q34" s="223"/>
-      <c r="R34" s="225"/>
-      <c r="S34" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="220"/>
-    </row>
-    <row r="35" spans="1:20" s="22" customFormat="1">
-      <c r="A35" s="214"/>
-      <c r="B35" s="222"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="223"/>
-      <c r="L35" s="223"/>
-      <c r="M35" s="223"/>
-      <c r="N35" s="257"/>
-      <c r="O35" s="223"/>
-      <c r="P35" s="223"/>
-      <c r="Q35" s="223"/>
-      <c r="R35" s="225"/>
-      <c r="S35" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="220"/>
-    </row>
-    <row r="36" spans="1:20" s="22" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A36" s="214"/>
-      <c r="B36" s="235"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="237"/>
-      <c r="E36" s="237"/>
-      <c r="F36" s="237"/>
-      <c r="G36" s="237"/>
-      <c r="H36" s="237"/>
-      <c r="I36" s="237"/>
-      <c r="J36" s="237"/>
-      <c r="K36" s="237"/>
-      <c r="L36" s="237"/>
-      <c r="M36" s="237"/>
-      <c r="N36" s="259"/>
-      <c r="O36" s="237"/>
-      <c r="P36" s="237"/>
-      <c r="Q36" s="237"/>
-      <c r="R36" s="238"/>
-      <c r="S36" s="219">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="220"/>
-    </row>
-    <row r="37" spans="1:20" s="203" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A37" s="239" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="240">
-        <f>SUM(B6:B36)</f>
-        <v>24300</v>
-      </c>
-      <c r="C37" s="241">
-        <f t="shared" ref="C37:R37" si="1">SUM(C6:C36)</f>
-        <v>4020</v>
-      </c>
-      <c r="D37" s="241">
-        <f t="shared" si="1"/>
-        <v>2350</v>
-      </c>
-      <c r="E37" s="241">
-        <f t="shared" si="1"/>
-        <v>5030</v>
-      </c>
-      <c r="F37" s="241">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="G37" s="241">
-        <f>SUM(G6:G36)</f>
-        <v>6540</v>
-      </c>
-      <c r="H37" s="241">
-        <f t="shared" si="1"/>
-        <v>2150</v>
-      </c>
-      <c r="I37" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="241">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="K37" s="241">
-        <f t="shared" si="1"/>
-        <v>12860</v>
-      </c>
-      <c r="L37" s="241">
-        <f t="shared" si="1"/>
-        <v>799</v>
-      </c>
-      <c r="M37" s="241">
-        <f t="shared" si="1"/>
-        <v>933</v>
-      </c>
-      <c r="N37" s="260">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="O37" s="241">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="P37" s="241">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="Q37" s="241">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="242">
-        <f t="shared" si="1"/>
-        <v>3350</v>
-      </c>
-      <c r="S37" s="243">
-        <f>SUM(S6:S36)</f>
-        <v>76407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="244" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="245"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="246"/>
-      <c r="E38" s="246"/>
-      <c r="F38" s="246"/>
-      <c r="G38" s="246"/>
-      <c r="H38" s="246"/>
-      <c r="I38" s="246"/>
-      <c r="J38" s="246"/>
-      <c r="K38" s="246"/>
-      <c r="L38" s="246"/>
-      <c r="M38" s="246"/>
-      <c r="N38" s="246"/>
-      <c r="O38" s="246"/>
-      <c r="P38" s="247"/>
-      <c r="Q38" s="247"/>
-      <c r="R38" s="247"/>
-      <c r="S38" s="248"/>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
-      <c r="H39" s="249"/>
-      <c r="I39" s="249"/>
-      <c r="J39" s="249"/>
-      <c r="T39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20">
-      <c r="A40" s="25"/>
-      <c r="B40" s="250"/>
-      <c r="C40" s="249"/>
-      <c r="D40" s="249"/>
-      <c r="E40" s="249"/>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="25"/>
-      <c r="B41" s="250"/>
-      <c r="C41" s="249"/>
-      <c r="D41" s="249"/>
-      <c r="E41" s="249"/>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="25"/>
-      <c r="B42" s="250"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="249"/>
-      <c r="E42" s="249"/>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" s="25"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="249"/>
-      <c r="D43" s="249"/>
-      <c r="E43" s="249"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="25"/>
-      <c r="B44" s="250"/>
-      <c r="C44" s="249"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="249"/>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="25"/>
-      <c r="B45" s="250"/>
-      <c r="C45" s="249"/>
-      <c r="D45" s="249"/>
-      <c r="E45" s="249"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" s="25"/>
-      <c r="B46" s="250"/>
-      <c r="C46" s="249"/>
-      <c r="D46" s="249"/>
-      <c r="E46" s="249"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="25"/>
-      <c r="B47" s="250"/>
-      <c r="C47" s="249"/>
-      <c r="D47" s="249"/>
-      <c r="E47" s="249"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="25"/>
-      <c r="B48" s="250"/>
-      <c r="C48" s="249"/>
-      <c r="D48" s="249"/>
-      <c r="E48" s="249"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="25"/>
-      <c r="B49" s="250"/>
-      <c r="C49" s="249"/>
-      <c r="D49" s="249"/>
-      <c r="E49" s="249"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="25"/>
-      <c r="B50" s="250"/>
-      <c r="C50" s="249"/>
-      <c r="D50" s="249"/>
-      <c r="E50" s="249"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="25"/>
-      <c r="B51" s="250"/>
-      <c r="C51" s="249"/>
-      <c r="D51" s="249"/>
-      <c r="E51" s="249"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="25"/>
-      <c r="B52" s="250"/>
-      <c r="C52" s="249"/>
-      <c r="D52" s="249"/>
-      <c r="E52" s="249"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="25"/>
-      <c r="B53" s="250"/>
-      <c r="C53" s="249"/>
-      <c r="D53" s="249"/>
-      <c r="E53" s="249"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="25"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="249"/>
-      <c r="D54" s="249"/>
-      <c r="E54" s="249"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="25"/>
-      <c r="B55" s="250"/>
-      <c r="C55" s="249"/>
-      <c r="D55" s="249"/>
-      <c r="E55" s="249"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="25"/>
-      <c r="B56" s="250"/>
-      <c r="C56" s="249"/>
-      <c r="D56" s="249"/>
-      <c r="E56" s="249"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="25"/>
-      <c r="B57" s="250"/>
-      <c r="C57" s="249"/>
-      <c r="D57" s="249"/>
-      <c r="E57" s="249"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="25"/>
-      <c r="B58" s="250"/>
-      <c r="C58" s="249"/>
-      <c r="D58" s="249"/>
-      <c r="E58" s="249"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="25"/>
-      <c r="B59" s="250"/>
-      <c r="C59" s="249"/>
-      <c r="D59" s="249"/>
-      <c r="E59" s="249"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="25"/>
-      <c r="B60" s="250"/>
-      <c r="C60" s="249"/>
-      <c r="D60" s="249"/>
-      <c r="E60" s="249"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="25"/>
-      <c r="B61" s="250"/>
-      <c r="C61" s="249"/>
-      <c r="D61" s="249"/>
-      <c r="E61" s="249"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="25"/>
-      <c r="B62" s="250"/>
-      <c r="C62" s="249"/>
-      <c r="D62" s="249"/>
-      <c r="E62" s="249"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="25"/>
-      <c r="B63" s="250"/>
-      <c r="C63" s="249"/>
-      <c r="D63" s="249"/>
-      <c r="E63" s="249"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="25"/>
-      <c r="B64" s="250"/>
-      <c r="C64" s="249"/>
-      <c r="D64" s="249"/>
-      <c r="E64" s="249"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="25"/>
-      <c r="B65" s="250"/>
-      <c r="C65" s="249"/>
-      <c r="D65" s="249"/>
-      <c r="E65" s="249"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="25"/>
-      <c r="B66" s="250"/>
-      <c r="C66" s="249"/>
-      <c r="D66" s="249"/>
-      <c r="E66" s="249"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="25"/>
-      <c r="B67" s="250"/>
-      <c r="C67" s="249"/>
-      <c r="D67" s="249"/>
-      <c r="E67" s="249"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="25"/>
-      <c r="B68" s="250"/>
-      <c r="C68" s="249"/>
-      <c r="D68" s="249"/>
-      <c r="E68" s="249"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="25"/>
-      <c r="B69" s="250"/>
-      <c r="C69" s="249"/>
-      <c r="D69" s="249"/>
-      <c r="E69" s="249"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="25"/>
-      <c r="B70" s="250"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="25"/>
-      <c r="B71" s="250"/>
-      <c r="C71" s="249"/>
-      <c r="D71" s="249"/>
-      <c r="E71" s="249"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="25"/>
-      <c r="B72" s="250"/>
-      <c r="C72" s="249"/>
-      <c r="D72" s="249"/>
-      <c r="E72" s="249"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="25"/>
-      <c r="B73" s="250"/>
-      <c r="C73" s="249"/>
-      <c r="D73" s="249"/>
-      <c r="E73" s="249"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="25"/>
-      <c r="B74" s="250"/>
-      <c r="C74" s="249"/>
-      <c r="D74" s="249"/>
-      <c r="E74" s="249"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="25"/>
-      <c r="B75" s="250"/>
-      <c r="C75" s="249"/>
-      <c r="D75" s="249"/>
-      <c r="E75" s="249"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="25"/>
-      <c r="B76" s="250"/>
-      <c r="C76" s="249"/>
-      <c r="D76" s="249"/>
-      <c r="E76" s="249"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="25"/>
-      <c r="B77" s="250"/>
-      <c r="C77" s="249"/>
-      <c r="D77" s="249"/>
-      <c r="E77" s="249"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="25"/>
-      <c r="B78" s="250"/>
-      <c r="C78" s="249"/>
-      <c r="D78" s="249"/>
-      <c r="E78" s="249"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="25"/>
-      <c r="B79" s="250"/>
-      <c r="C79" s="249"/>
-      <c r="D79" s="249"/>
-      <c r="E79" s="249"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="25"/>
-      <c r="B80" s="250"/>
-      <c r="C80" s="249"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="249"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="25"/>
-      <c r="B81" s="250"/>
-      <c r="C81" s="249"/>
-      <c r="D81" s="249"/>
-      <c r="E81" s="249"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="25"/>
-      <c r="B82" s="250"/>
-      <c r="C82" s="249"/>
-      <c r="D82" s="249"/>
-      <c r="E82" s="249"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="25"/>
-      <c r="B83" s="250"/>
-      <c r="C83" s="249"/>
-      <c r="D83" s="249"/>
-      <c r="E83" s="249"/>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="25"/>
-      <c r="B84" s="250"/>
-      <c r="C84" s="249"/>
-      <c r="D84" s="249"/>
-      <c r="E84" s="249"/>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="25"/>
-      <c r="B85" s="250"/>
-      <c r="C85" s="249"/>
-      <c r="D85" s="249"/>
-      <c r="E85" s="249"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="25"/>
-      <c r="B86" s="250"/>
-      <c r="C86" s="249"/>
-      <c r="D86" s="249"/>
-      <c r="E86" s="249"/>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="25"/>
-      <c r="B87" s="250"/>
-      <c r="C87" s="249"/>
-      <c r="D87" s="249"/>
-      <c r="E87" s="249"/>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="25"/>
-      <c r="B88" s="250"/>
-      <c r="C88" s="249"/>
-      <c r="D88" s="249"/>
-      <c r="E88" s="249"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="25"/>
-      <c r="B89" s="250"/>
-      <c r="C89" s="249"/>
-      <c r="D89" s="249"/>
-      <c r="E89" s="249"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="25"/>
-      <c r="B90" s="250"/>
-      <c r="C90" s="249"/>
-      <c r="D90" s="249"/>
-      <c r="E90" s="249"/>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="25"/>
-      <c r="B91" s="250"/>
-      <c r="C91" s="249"/>
-      <c r="D91" s="249"/>
-      <c r="E91" s="249"/>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="25"/>
-      <c r="B92" s="250"/>
-      <c r="C92" s="249"/>
-      <c r="D92" s="249"/>
-      <c r="E92" s="249"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="25"/>
-      <c r="B93" s="250"/>
-      <c r="C93" s="249"/>
-      <c r="D93" s="249"/>
-      <c r="E93" s="249"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="25"/>
-      <c r="B94" s="250"/>
-      <c r="C94" s="249"/>
-      <c r="D94" s="249"/>
-      <c r="E94" s="249"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="25"/>
-      <c r="B95" s="250"/>
-      <c r="C95" s="249"/>
-      <c r="D95" s="249"/>
-      <c r="E95" s="249"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="25"/>
-      <c r="B96" s="250"/>
-      <c r="C96" s="249"/>
-      <c r="D96" s="249"/>
-      <c r="E96" s="249"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="25"/>
-      <c r="B97" s="250"/>
-      <c r="C97" s="249"/>
-      <c r="D97" s="249"/>
-      <c r="E97" s="249"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="25"/>
-      <c r="B98" s="250"/>
-      <c r="C98" s="249"/>
-      <c r="D98" s="249"/>
-      <c r="E98" s="249"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="25"/>
-      <c r="B99" s="250"/>
-      <c r="C99" s="249"/>
-      <c r="D99" s="249"/>
-      <c r="E99" s="249"/>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="25"/>
-      <c r="B100" s="250"/>
-      <c r="C100" s="249"/>
-      <c r="D100" s="249"/>
-      <c r="E100" s="249"/>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="25"/>
-      <c r="B101" s="250"/>
-      <c r="C101" s="249"/>
-      <c r="D101" s="249"/>
-      <c r="E101" s="249"/>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="25"/>
-      <c r="B102" s="250"/>
-      <c r="C102" s="249"/>
-      <c r="D102" s="249"/>
-      <c r="E102" s="249"/>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="25"/>
-      <c r="B103" s="250"/>
-      <c r="C103" s="249"/>
-      <c r="D103" s="249"/>
-      <c r="E103" s="249"/>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="25"/>
-      <c r="B104" s="250"/>
-      <c r="C104" s="249"/>
-      <c r="D104" s="249"/>
-      <c r="E104" s="249"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="25"/>
-      <c r="B105" s="250"/>
-      <c r="C105" s="249"/>
-      <c r="D105" s="249"/>
-      <c r="E105" s="249"/>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="25"/>
-      <c r="B106" s="250"/>
-      <c r="C106" s="249"/>
-      <c r="D106" s="249"/>
-      <c r="E106" s="249"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="25"/>
-      <c r="B107" s="250"/>
-      <c r="C107" s="249"/>
-      <c r="D107" s="249"/>
-      <c r="E107" s="249"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="25"/>
-      <c r="B108" s="250"/>
-      <c r="C108" s="249"/>
-      <c r="D108" s="249"/>
-      <c r="E108" s="249"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="25"/>
-      <c r="B109" s="250"/>
-      <c r="C109" s="249"/>
-      <c r="D109" s="249"/>
-      <c r="E109" s="249"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="25"/>
-      <c r="B110" s="250"/>
-      <c r="C110" s="249"/>
-      <c r="D110" s="249"/>
-      <c r="E110" s="249"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="25"/>
-      <c r="B111" s="250"/>
-      <c r="C111" s="249"/>
-      <c r="D111" s="249"/>
-      <c r="E111" s="249"/>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="25"/>
-      <c r="B112" s="250"/>
-      <c r="C112" s="249"/>
-      <c r="D112" s="249"/>
-      <c r="E112" s="249"/>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="25"/>
-      <c r="B113" s="250"/>
-      <c r="C113" s="249"/>
-      <c r="D113" s="249"/>
-      <c r="E113" s="249"/>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="25"/>
-      <c r="B114" s="250"/>
-      <c r="C114" s="249"/>
-      <c r="D114" s="249"/>
-      <c r="E114" s="249"/>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="25"/>
-      <c r="B115" s="250"/>
-      <c r="C115" s="249"/>
-      <c r="D115" s="249"/>
-      <c r="E115" s="249"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="25"/>
-      <c r="B116" s="250"/>
-      <c r="C116" s="249"/>
-      <c r="D116" s="249"/>
-      <c r="E116" s="249"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="25"/>
-      <c r="B117" s="250"/>
-      <c r="C117" s="249"/>
-      <c r="D117" s="249"/>
-      <c r="E117" s="249"/>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="25"/>
-      <c r="B118" s="250"/>
-      <c r="C118" s="249"/>
-      <c r="D118" s="249"/>
-      <c r="E118" s="249"/>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="25"/>
-      <c r="B119" s="250"/>
-      <c r="C119" s="249"/>
-      <c r="D119" s="249"/>
-      <c r="E119" s="249"/>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="25"/>
-      <c r="B120" s="250"/>
-      <c r="C120" s="249"/>
-      <c r="D120" s="249"/>
-      <c r="E120" s="249"/>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="25"/>
-      <c r="B121" s="250"/>
-      <c r="C121" s="249"/>
-      <c r="D121" s="249"/>
-      <c r="E121" s="249"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="25"/>
-      <c r="B122" s="250"/>
-      <c r="C122" s="249"/>
-      <c r="D122" s="249"/>
-      <c r="E122" s="249"/>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="25"/>
-      <c r="B123" s="250"/>
-      <c r="C123" s="249"/>
-      <c r="D123" s="249"/>
-      <c r="E123" s="249"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="25"/>
-      <c r="B124" s="250"/>
-      <c r="C124" s="249"/>
-      <c r="D124" s="249"/>
-      <c r="E124" s="249"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="25"/>
-      <c r="B125" s="250"/>
-      <c r="C125" s="249"/>
-      <c r="D125" s="249"/>
-      <c r="E125" s="249"/>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="25"/>
-      <c r="B126" s="250"/>
-      <c r="C126" s="249"/>
-      <c r="D126" s="249"/>
-      <c r="E126" s="249"/>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="25"/>
-      <c r="B127" s="250"/>
-      <c r="C127" s="249"/>
-      <c r="D127" s="249"/>
-      <c r="E127" s="249"/>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="25"/>
-      <c r="B128" s="250"/>
-      <c r="C128" s="249"/>
-      <c r="D128" s="249"/>
-      <c r="E128" s="249"/>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="25"/>
-      <c r="B129" s="250"/>
-      <c r="C129" s="249"/>
-      <c r="D129" s="249"/>
-      <c r="E129" s="249"/>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="25"/>
-      <c r="B130" s="250"/>
-      <c r="C130" s="249"/>
-      <c r="D130" s="249"/>
-      <c r="E130" s="249"/>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="25"/>
-      <c r="B131" s="250"/>
-      <c r="C131" s="249"/>
-      <c r="D131" s="249"/>
-      <c r="E131" s="249"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="25"/>
-      <c r="B132" s="250"/>
-      <c r="C132" s="249"/>
-      <c r="D132" s="249"/>
-      <c r="E132" s="249"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="25"/>
-      <c r="B133" s="250"/>
-      <c r="C133" s="249"/>
-      <c r="D133" s="249"/>
-      <c r="E133" s="249"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="25"/>
-      <c r="B134" s="250"/>
-      <c r="C134" s="249"/>
-      <c r="D134" s="249"/>
-      <c r="E134" s="249"/>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="25"/>
-      <c r="B135" s="250"/>
-      <c r="C135" s="249"/>
-      <c r="D135" s="249"/>
-      <c r="E135" s="249"/>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="25"/>
-      <c r="B136" s="250"/>
-      <c r="C136" s="249"/>
-      <c r="D136" s="249"/>
-      <c r="E136" s="249"/>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="25"/>
-      <c r="B137" s="250"/>
-      <c r="C137" s="249"/>
-      <c r="D137" s="249"/>
-      <c r="E137" s="249"/>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="25"/>
-      <c r="B138" s="250"/>
-      <c r="C138" s="249"/>
-      <c r="D138" s="249"/>
-      <c r="E138" s="249"/>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="25"/>
-      <c r="B139" s="250"/>
-      <c r="C139" s="249"/>
-      <c r="D139" s="249"/>
-      <c r="E139" s="249"/>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="25"/>
-      <c r="B140" s="250"/>
-      <c r="C140" s="249"/>
-      <c r="D140" s="249"/>
-      <c r="E140" s="249"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="25"/>
-      <c r="B141" s="250"/>
-      <c r="C141" s="249"/>
-      <c r="D141" s="249"/>
-      <c r="E141" s="249"/>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="25"/>
-      <c r="B142" s="250"/>
-      <c r="C142" s="249"/>
-      <c r="D142" s="249"/>
-      <c r="E142" s="249"/>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="25"/>
-      <c r="B143" s="250"/>
-      <c r="C143" s="249"/>
-      <c r="D143" s="249"/>
-      <c r="E143" s="249"/>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="25"/>
-      <c r="B144" s="250"/>
-      <c r="C144" s="249"/>
-      <c r="D144" s="249"/>
-      <c r="E144" s="249"/>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="25"/>
-      <c r="B145" s="250"/>
-      <c r="C145" s="249"/>
-      <c r="D145" s="249"/>
-      <c r="E145" s="249"/>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="25"/>
-      <c r="B146" s="250"/>
-      <c r="C146" s="249"/>
-      <c r="D146" s="249"/>
-      <c r="E146" s="249"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="25"/>
-      <c r="B147" s="250"/>
-      <c r="C147" s="249"/>
-      <c r="D147" s="249"/>
-      <c r="E147" s="249"/>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="25"/>
-      <c r="B148" s="250"/>
-      <c r="C148" s="249"/>
-      <c r="D148" s="249"/>
-      <c r="E148" s="249"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="25"/>
-      <c r="B149" s="250"/>
-      <c r="C149" s="249"/>
-      <c r="D149" s="249"/>
-      <c r="E149" s="249"/>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="25"/>
-      <c r="B150" s="250"/>
-      <c r="C150" s="249"/>
-      <c r="D150" s="249"/>
-      <c r="E150" s="249"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="25"/>
-      <c r="B151" s="250"/>
-      <c r="C151" s="249"/>
-      <c r="D151" s="249"/>
-      <c r="E151" s="249"/>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="25"/>
-      <c r="B152" s="250"/>
-      <c r="C152" s="249"/>
-      <c r="D152" s="249"/>
-      <c r="E152" s="249"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="25"/>
-      <c r="B153" s="250"/>
-      <c r="C153" s="249"/>
-      <c r="D153" s="249"/>
-      <c r="E153" s="249"/>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="25"/>
-      <c r="B154" s="250"/>
-      <c r="C154" s="249"/>
-      <c r="D154" s="249"/>
-      <c r="E154" s="249"/>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="25"/>
-      <c r="B155" s="250"/>
-      <c r="C155" s="249"/>
-      <c r="D155" s="249"/>
-      <c r="E155" s="249"/>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="25"/>
-      <c r="B156" s="250"/>
-      <c r="C156" s="249"/>
-      <c r="D156" s="249"/>
-      <c r="E156" s="249"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="25"/>
-      <c r="B157" s="250"/>
-      <c r="C157" s="249"/>
-      <c r="D157" s="249"/>
-      <c r="E157" s="249"/>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="25"/>
-      <c r="B158" s="250"/>
-      <c r="C158" s="249"/>
-      <c r="D158" s="249"/>
-      <c r="E158" s="249"/>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="25"/>
-      <c r="B159" s="250"/>
-      <c r="C159" s="249"/>
-      <c r="D159" s="249"/>
-      <c r="E159" s="249"/>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="25"/>
-      <c r="B160" s="250"/>
-      <c r="C160" s="249"/>
-      <c r="D160" s="249"/>
-      <c r="E160" s="249"/>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="25"/>
-      <c r="B161" s="250"/>
-      <c r="C161" s="249"/>
-      <c r="D161" s="249"/>
-      <c r="E161" s="249"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="25"/>
-      <c r="B162" s="250"/>
-      <c r="C162" s="249"/>
-      <c r="D162" s="249"/>
-      <c r="E162" s="249"/>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="25"/>
-      <c r="B163" s="250"/>
-      <c r="C163" s="249"/>
-      <c r="D163" s="249"/>
-      <c r="E163" s="249"/>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="25"/>
-      <c r="B164" s="250"/>
-      <c r="C164" s="249"/>
-      <c r="D164" s="249"/>
-      <c r="E164" s="249"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="25"/>
-      <c r="B165" s="250"/>
-      <c r="C165" s="249"/>
-      <c r="D165" s="249"/>
-      <c r="E165" s="249"/>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="25"/>
-      <c r="B166" s="250"/>
-      <c r="C166" s="249"/>
-      <c r="D166" s="249"/>
-      <c r="E166" s="249"/>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="25"/>
-      <c r="B167" s="250"/>
-      <c r="C167" s="249"/>
-      <c r="D167" s="249"/>
-      <c r="E167" s="249"/>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="25"/>
-      <c r="B168" s="250"/>
-      <c r="C168" s="249"/>
-      <c r="D168" s="249"/>
-      <c r="E168" s="249"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="25"/>
-      <c r="B169" s="250"/>
-      <c r="C169" s="249"/>
-      <c r="D169" s="249"/>
-      <c r="E169" s="249"/>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="25"/>
-      <c r="B170" s="250"/>
-      <c r="C170" s="249"/>
-      <c r="D170" s="249"/>
-      <c r="E170" s="249"/>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="25"/>
-      <c r="B171" s="250"/>
-      <c r="C171" s="249"/>
-      <c r="D171" s="249"/>
-      <c r="E171" s="249"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="25"/>
-      <c r="B172" s="250"/>
-      <c r="C172" s="249"/>
-      <c r="D172" s="249"/>
-      <c r="E172" s="249"/>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="25"/>
-      <c r="B173" s="250"/>
-      <c r="C173" s="249"/>
-      <c r="D173" s="249"/>
-      <c r="E173" s="249"/>
-    </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="25"/>
-      <c r="B174" s="250"/>
-      <c r="C174" s="249"/>
-      <c r="D174" s="249"/>
-      <c r="E174" s="249"/>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="25"/>
-      <c r="B175" s="250"/>
-      <c r="C175" s="249"/>
-      <c r="D175" s="249"/>
-      <c r="E175" s="249"/>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="25"/>
-      <c r="B176" s="250"/>
-      <c r="C176" s="249"/>
-      <c r="D176" s="249"/>
-      <c r="E176" s="249"/>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="25"/>
-      <c r="B177" s="250"/>
-      <c r="C177" s="249"/>
-      <c r="D177" s="249"/>
-      <c r="E177" s="249"/>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="25"/>
-      <c r="B178" s="250"/>
-      <c r="C178" s="249"/>
-      <c r="D178" s="249"/>
-      <c r="E178" s="249"/>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="25"/>
-      <c r="B179" s="250"/>
-      <c r="C179" s="249"/>
-      <c r="D179" s="249"/>
-      <c r="E179" s="249"/>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="25"/>
-      <c r="B180" s="250"/>
-      <c r="C180" s="249"/>
-      <c r="D180" s="249"/>
-      <c r="E180" s="249"/>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="25"/>
-      <c r="B181" s="250"/>
-      <c r="C181" s="249"/>
-      <c r="D181" s="249"/>
-      <c r="E181" s="249"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="25"/>
-      <c r="B182" s="250"/>
-      <c r="C182" s="249"/>
-      <c r="D182" s="249"/>
-      <c r="E182" s="249"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="25"/>
-      <c r="B183" s="250"/>
-      <c r="C183" s="249"/>
-      <c r="D183" s="249"/>
-      <c r="E183" s="249"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="25"/>
-      <c r="B184" s="250"/>
-      <c r="C184" s="249"/>
-      <c r="D184" s="249"/>
-      <c r="E184" s="249"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="25"/>
-      <c r="B185" s="250"/>
-      <c r="C185" s="249"/>
-      <c r="D185" s="249"/>
-      <c r="E185" s="249"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="25"/>
-      <c r="B186" s="250"/>
-      <c r="C186" s="249"/>
-      <c r="D186" s="249"/>
-      <c r="E186" s="249"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="25"/>
-      <c r="B187" s="250"/>
-      <c r="C187" s="249"/>
-      <c r="D187" s="249"/>
-      <c r="E187" s="249"/>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="25"/>
-      <c r="B188" s="250"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="249"/>
-      <c r="E188" s="249"/>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="25"/>
-      <c r="B189" s="250"/>
-      <c r="C189" s="249"/>
-      <c r="D189" s="249"/>
-      <c r="E189" s="249"/>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="25"/>
-      <c r="B190" s="250"/>
-      <c r="C190" s="249"/>
-      <c r="D190" s="249"/>
-      <c r="E190" s="249"/>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="25"/>
-      <c r="B191" s="250"/>
-      <c r="C191" s="249"/>
-      <c r="D191" s="249"/>
-      <c r="E191" s="249"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="25"/>
-      <c r="B192" s="250"/>
-      <c r="C192" s="249"/>
-      <c r="D192" s="249"/>
-      <c r="E192" s="249"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="25"/>
-      <c r="B193" s="250"/>
-      <c r="C193" s="249"/>
-      <c r="D193" s="249"/>
-      <c r="E193" s="249"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="25"/>
-      <c r="B194" s="250"/>
-      <c r="C194" s="249"/>
-      <c r="D194" s="249"/>
-      <c r="E194" s="249"/>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="25"/>
-      <c r="B195" s="250"/>
-      <c r="C195" s="249"/>
-      <c r="D195" s="249"/>
-      <c r="E195" s="249"/>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="25"/>
-      <c r="B196" s="250"/>
-      <c r="C196" s="249"/>
-      <c r="D196" s="249"/>
-      <c r="E196" s="249"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="25"/>
-      <c r="B197" s="250"/>
-      <c r="C197" s="249"/>
-      <c r="D197" s="249"/>
-      <c r="E197" s="249"/>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="25"/>
-      <c r="B198" s="250"/>
-      <c r="C198" s="249"/>
-      <c r="D198" s="249"/>
-      <c r="E198" s="249"/>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="25"/>
-      <c r="B199" s="250"/>
-      <c r="C199" s="249"/>
-      <c r="D199" s="249"/>
-      <c r="E199" s="249"/>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="25"/>
-      <c r="B200" s="250"/>
-      <c r="C200" s="249"/>
-      <c r="D200" s="249"/>
-      <c r="E200" s="249"/>
-    </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="25"/>
-      <c r="B201" s="250"/>
-      <c r="C201" s="249"/>
-      <c r="D201" s="249"/>
-      <c r="E201" s="249"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="25"/>
-      <c r="B202" s="250"/>
-      <c r="C202" s="249"/>
-      <c r="D202" s="249"/>
-      <c r="E202" s="249"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="25"/>
-      <c r="B203" s="250"/>
-      <c r="C203" s="249"/>
-      <c r="D203" s="249"/>
-      <c r="E203" s="249"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="25"/>
-      <c r="B204" s="250"/>
-      <c r="C204" s="249"/>
-      <c r="D204" s="249"/>
-      <c r="E204" s="249"/>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="25"/>
-      <c r="B205" s="250"/>
-      <c r="C205" s="249"/>
-      <c r="D205" s="249"/>
-      <c r="E205" s="249"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="25"/>
-      <c r="B206" s="250"/>
-      <c r="C206" s="249"/>
-      <c r="D206" s="249"/>
-      <c r="E206" s="249"/>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="25"/>
-      <c r="B207" s="250"/>
-      <c r="C207" s="249"/>
-      <c r="D207" s="249"/>
-      <c r="E207" s="249"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="25"/>
-      <c r="B208" s="250"/>
-      <c r="C208" s="249"/>
-      <c r="D208" s="249"/>
-      <c r="E208" s="249"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="25"/>
-      <c r="B209" s="250"/>
-      <c r="C209" s="249"/>
-      <c r="D209" s="249"/>
-      <c r="E209" s="249"/>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="25"/>
-      <c r="B210" s="250"/>
-      <c r="C210" s="249"/>
-      <c r="D210" s="249"/>
-      <c r="E210" s="249"/>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="25"/>
-      <c r="B211" s="250"/>
-      <c r="C211" s="249"/>
-      <c r="D211" s="249"/>
-      <c r="E211" s="249"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="25"/>
-      <c r="B212" s="250"/>
-      <c r="C212" s="249"/>
-      <c r="D212" s="249"/>
-      <c r="E212" s="249"/>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="25"/>
-      <c r="B213" s="250"/>
-      <c r="C213" s="249"/>
-      <c r="D213" s="249"/>
-      <c r="E213" s="249"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="25"/>
-      <c r="B214" s="250"/>
-      <c r="C214" s="249"/>
-      <c r="D214" s="249"/>
-      <c r="E214" s="249"/>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="25"/>
-      <c r="B215" s="250"/>
-      <c r="C215" s="249"/>
-      <c r="D215" s="249"/>
-      <c r="E215" s="249"/>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="25"/>
-      <c r="B216" s="250"/>
-      <c r="C216" s="249"/>
-      <c r="D216" s="249"/>
-      <c r="E216" s="249"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="25"/>
-      <c r="B217" s="250"/>
-      <c r="C217" s="249"/>
-      <c r="D217" s="249"/>
-      <c r="E217" s="249"/>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="25"/>
-      <c r="B218" s="250"/>
-      <c r="C218" s="249"/>
-      <c r="D218" s="249"/>
-      <c r="E218" s="249"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="25"/>
-      <c r="B219" s="250"/>
-      <c r="C219" s="249"/>
-      <c r="D219" s="249"/>
-      <c r="E219" s="249"/>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="25"/>
-      <c r="B220" s="250"/>
-      <c r="C220" s="249"/>
-      <c r="D220" s="249"/>
-      <c r="E220" s="249"/>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="25"/>
-      <c r="B221" s="250"/>
-      <c r="C221" s="249"/>
-      <c r="D221" s="249"/>
-      <c r="E221" s="249"/>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="25"/>
-      <c r="B222" s="250"/>
-      <c r="C222" s="249"/>
-      <c r="D222" s="249"/>
-      <c r="E222" s="249"/>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="25"/>
-      <c r="B223" s="250"/>
-      <c r="C223" s="249"/>
-      <c r="D223" s="249"/>
-      <c r="E223" s="249"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="25"/>
-      <c r="B224" s="250"/>
-      <c r="C224" s="249"/>
-      <c r="D224" s="249"/>
-      <c r="E224" s="249"/>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="25"/>
-      <c r="B225" s="250"/>
-      <c r="C225" s="249"/>
-      <c r="D225" s="249"/>
-      <c r="E225" s="249"/>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="25"/>
-      <c r="B226" s="250"/>
-      <c r="C226" s="249"/>
-      <c r="D226" s="249"/>
-      <c r="E226" s="249"/>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="25"/>
-      <c r="B227" s="250"/>
-      <c r="C227" s="249"/>
-      <c r="D227" s="249"/>
-      <c r="E227" s="249"/>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="25"/>
-      <c r="B228" s="250"/>
-      <c r="C228" s="249"/>
-      <c r="D228" s="249"/>
-      <c r="E228" s="249"/>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="25"/>
-      <c r="B229" s="250"/>
-      <c r="C229" s="249"/>
-      <c r="D229" s="249"/>
-      <c r="E229" s="249"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="25"/>
-      <c r="B230" s="250"/>
-      <c r="C230" s="249"/>
-      <c r="D230" s="249"/>
-      <c r="E230" s="249"/>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="25"/>
-      <c r="B231" s="250"/>
-      <c r="C231" s="249"/>
-      <c r="D231" s="249"/>
-      <c r="E231" s="249"/>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="25"/>
-      <c r="B232" s="250"/>
-      <c r="C232" s="249"/>
-      <c r="D232" s="249"/>
-      <c r="E232" s="249"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="25"/>
-      <c r="B233" s="250"/>
-      <c r="C233" s="249"/>
-      <c r="D233" s="249"/>
-      <c r="E233" s="249"/>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="25"/>
-      <c r="B234" s="250"/>
-      <c r="C234" s="249"/>
-      <c r="D234" s="249"/>
-      <c r="E234" s="249"/>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="25"/>
-      <c r="B235" s="250"/>
-      <c r="C235" s="249"/>
-      <c r="D235" s="249"/>
-      <c r="E235" s="249"/>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="25"/>
-      <c r="B236" s="250"/>
-      <c r="C236" s="249"/>
-      <c r="D236" s="249"/>
-      <c r="E236" s="249"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="25"/>
-      <c r="B237" s="250"/>
-      <c r="C237" s="249"/>
-      <c r="D237" s="249"/>
-      <c r="E237" s="249"/>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="25"/>
-      <c r="B238" s="250"/>
-      <c r="C238" s="249"/>
-      <c r="D238" s="249"/>
-      <c r="E238" s="249"/>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="25"/>
-      <c r="B239" s="250"/>
-      <c r="C239" s="249"/>
-      <c r="D239" s="249"/>
-      <c r="E239" s="249"/>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="25"/>
-      <c r="B240" s="250"/>
-      <c r="C240" s="249"/>
-      <c r="D240" s="249"/>
-      <c r="E240" s="249"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="25"/>
-      <c r="B241" s="250"/>
-      <c r="C241" s="249"/>
-      <c r="D241" s="249"/>
-      <c r="E241" s="249"/>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="25"/>
-      <c r="B242" s="250"/>
-      <c r="C242" s="249"/>
-      <c r="D242" s="249"/>
-      <c r="E242" s="249"/>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="25"/>
-      <c r="B243" s="250"/>
-      <c r="C243" s="249"/>
-      <c r="D243" s="249"/>
-      <c r="E243" s="249"/>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="25"/>
-      <c r="B244" s="250"/>
-      <c r="C244" s="249"/>
-      <c r="D244" s="249"/>
-      <c r="E244" s="249"/>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="25"/>
-      <c r="B245" s="250"/>
-      <c r="C245" s="249"/>
-      <c r="D245" s="249"/>
-      <c r="E245" s="249"/>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="25"/>
-      <c r="B246" s="250"/>
-      <c r="C246" s="249"/>
-      <c r="D246" s="249"/>
-      <c r="E246" s="249"/>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="25"/>
-      <c r="B247" s="250"/>
-      <c r="C247" s="249"/>
-      <c r="D247" s="249"/>
-      <c r="E247" s="249"/>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="25"/>
-      <c r="B248" s="250"/>
-      <c r="C248" s="249"/>
-      <c r="D248" s="249"/>
-      <c r="E248" s="249"/>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="25"/>
-      <c r="B249" s="250"/>
-      <c r="C249" s="249"/>
-      <c r="D249" s="249"/>
-      <c r="E249" s="249"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="25"/>
-      <c r="B250" s="250"/>
-      <c r="C250" s="249"/>
-      <c r="D250" s="249"/>
-      <c r="E250" s="249"/>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="25"/>
-      <c r="B251" s="250"/>
-      <c r="C251" s="249"/>
-      <c r="D251" s="249"/>
-      <c r="E251" s="249"/>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="25"/>
-      <c r="B252" s="250"/>
-      <c r="C252" s="249"/>
-      <c r="D252" s="249"/>
-      <c r="E252" s="249"/>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="25"/>
-      <c r="B253" s="250"/>
-      <c r="C253" s="249"/>
-      <c r="D253" s="249"/>
-      <c r="E253" s="249"/>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="25"/>
-      <c r="B254" s="250"/>
-      <c r="C254" s="249"/>
-      <c r="D254" s="249"/>
-      <c r="E254" s="249"/>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="25"/>
-      <c r="B255" s="250"/>
-      <c r="C255" s="249"/>
-      <c r="D255" s="249"/>
-      <c r="E255" s="249"/>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="25"/>
-      <c r="B256" s="250"/>
-      <c r="C256" s="249"/>
-      <c r="D256" s="249"/>
-      <c r="E256" s="249"/>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="25"/>
-      <c r="B257" s="250"/>
-      <c r="C257" s="249"/>
-      <c r="D257" s="249"/>
-      <c r="E257" s="249"/>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="25"/>
-      <c r="B258" s="250"/>
-      <c r="C258" s="249"/>
-      <c r="D258" s="249"/>
-      <c r="E258" s="249"/>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="25"/>
-      <c r="B259" s="250"/>
-      <c r="C259" s="249"/>
-      <c r="D259" s="249"/>
-      <c r="E259" s="249"/>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="25"/>
-      <c r="B260" s="250"/>
-      <c r="C260" s="249"/>
-      <c r="D260" s="249"/>
-      <c r="E260" s="249"/>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="25"/>
-      <c r="B261" s="250"/>
-      <c r="C261" s="249"/>
-      <c r="D261" s="249"/>
-      <c r="E261" s="249"/>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="25"/>
-      <c r="B262" s="250"/>
-      <c r="C262" s="249"/>
-      <c r="D262" s="249"/>
-      <c r="E262" s="249"/>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="25"/>
-      <c r="B263" s="250"/>
-      <c r="C263" s="249"/>
-      <c r="D263" s="249"/>
-      <c r="E263" s="249"/>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="25"/>
-      <c r="B264" s="250"/>
-      <c r="C264" s="249"/>
-      <c r="D264" s="249"/>
-      <c r="E264" s="249"/>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="25"/>
-      <c r="B265" s="250"/>
-      <c r="C265" s="249"/>
-      <c r="D265" s="249"/>
-      <c r="E265" s="249"/>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="25"/>
-      <c r="B266" s="250"/>
-      <c r="C266" s="249"/>
-      <c r="D266" s="249"/>
-      <c r="E266" s="249"/>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="25"/>
-      <c r="B267" s="250"/>
-      <c r="C267" s="249"/>
-      <c r="D267" s="249"/>
-      <c r="E267" s="249"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="25"/>
-      <c r="B268" s="250"/>
-      <c r="C268" s="249"/>
-      <c r="D268" s="249"/>
-      <c r="E268" s="249"/>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="25"/>
-      <c r="B269" s="250"/>
-      <c r="C269" s="249"/>
-      <c r="D269" s="249"/>
-      <c r="E269" s="249"/>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" s="25"/>
-      <c r="B270" s="250"/>
-      <c r="C270" s="249"/>
-      <c r="D270" s="249"/>
-      <c r="E270" s="249"/>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" s="25"/>
-      <c r="B271" s="250"/>
-      <c r="C271" s="249"/>
-      <c r="D271" s="249"/>
-      <c r="E271" s="249"/>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" s="25"/>
-      <c r="B272" s="250"/>
-      <c r="C272" s="249"/>
-      <c r="D272" s="249"/>
-      <c r="E272" s="249"/>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" s="25"/>
-      <c r="B273" s="250"/>
-      <c r="C273" s="249"/>
-      <c r="D273" s="249"/>
-      <c r="E273" s="249"/>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" s="25"/>
-      <c r="B274" s="250"/>
-      <c r="C274" s="249"/>
-      <c r="D274" s="249"/>
-      <c r="E274" s="249"/>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" s="25"/>
-      <c r="B275" s="250"/>
-      <c r="C275" s="249"/>
-      <c r="D275" s="249"/>
-      <c r="E275" s="249"/>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="25"/>
-      <c r="B276" s="250"/>
-      <c r="C276" s="249"/>
-      <c r="D276" s="249"/>
-      <c r="E276" s="249"/>
-    </row>
-    <row r="277" spans="1:5">
-      <c r="A277" s="25"/>
-      <c r="B277" s="250"/>
-      <c r="C277" s="249"/>
-      <c r="D277" s="249"/>
-      <c r="E277" s="249"/>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="A278" s="25"/>
-      <c r="B278" s="250"/>
-      <c r="C278" s="249"/>
-      <c r="D278" s="249"/>
-      <c r="E278" s="249"/>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="A279" s="25"/>
-      <c r="B279" s="250"/>
-      <c r="C279" s="249"/>
-      <c r="D279" s="249"/>
-      <c r="E279" s="249"/>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="A280" s="25"/>
-      <c r="B280" s="250"/>
-      <c r="C280" s="249"/>
-      <c r="D280" s="249"/>
-      <c r="E280" s="249"/>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="A281" s="25"/>
-      <c r="B281" s="250"/>
-      <c r="C281" s="249"/>
-      <c r="D281" s="249"/>
-      <c r="E281" s="249"/>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="A282" s="25"/>
-      <c r="B282" s="250"/>
-      <c r="C282" s="249"/>
-      <c r="D282" s="249"/>
-      <c r="E282" s="249"/>
-    </row>
-    <row r="283" spans="1:5">
-      <c r="A283" s="25"/>
-      <c r="B283" s="250"/>
-      <c r="C283" s="249"/>
-      <c r="D283" s="249"/>
-      <c r="E283" s="249"/>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="A284" s="25"/>
-      <c r="B284" s="250"/>
-      <c r="C284" s="249"/>
-      <c r="D284" s="249"/>
-      <c r="E284" s="249"/>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="A285" s="25"/>
-      <c r="B285" s="250"/>
-      <c r="C285" s="249"/>
-      <c r="D285" s="249"/>
-      <c r="E285" s="249"/>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="A286" s="25"/>
-      <c r="B286" s="250"/>
-      <c r="C286" s="249"/>
-      <c r="D286" s="249"/>
-      <c r="E286" s="249"/>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="A287" s="25"/>
-      <c r="B287" s="250"/>
-      <c r="C287" s="249"/>
-      <c r="D287" s="249"/>
-      <c r="E287" s="249"/>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="A288" s="25"/>
-      <c r="B288" s="250"/>
-      <c r="C288" s="249"/>
-      <c r="D288" s="249"/>
-      <c r="E288" s="249"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="25"/>
-      <c r="B289" s="250"/>
-      <c r="C289" s="249"/>
-      <c r="D289" s="249"/>
-      <c r="E289" s="249"/>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="A290" s="25"/>
-      <c r="B290" s="250"/>
-      <c r="C290" s="249"/>
-      <c r="D290" s="249"/>
-      <c r="E290" s="249"/>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="A291" s="25"/>
-      <c r="B291" s="250"/>
-      <c r="C291" s="249"/>
-      <c r="D291" s="249"/>
-      <c r="E291" s="249"/>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="A292" s="25"/>
-      <c r="B292" s="250"/>
-      <c r="C292" s="249"/>
-      <c r="D292" s="249"/>
-      <c r="E292" s="249"/>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="A293" s="25"/>
-      <c r="B293" s="250"/>
-      <c r="C293" s="249"/>
-      <c r="D293" s="249"/>
-      <c r="E293" s="249"/>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="A294" s="25"/>
-      <c r="B294" s="250"/>
-      <c r="C294" s="249"/>
-      <c r="D294" s="249"/>
-      <c r="E294" s="249"/>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="A295" s="25"/>
-      <c r="B295" s="250"/>
-      <c r="C295" s="249"/>
-      <c r="D295" s="249"/>
-      <c r="E295" s="249"/>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="A296" s="25"/>
-      <c r="B296" s="250"/>
-      <c r="C296" s="249"/>
-      <c r="D296" s="249"/>
-      <c r="E296" s="249"/>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="25"/>
-      <c r="B297" s="250"/>
-      <c r="C297" s="249"/>
-      <c r="D297" s="249"/>
-      <c r="E297" s="249"/>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="A298" s="25"/>
-      <c r="B298" s="250"/>
-      <c r="C298" s="249"/>
-      <c r="D298" s="249"/>
-      <c r="E298" s="249"/>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="A299" s="25"/>
-      <c r="B299" s="250"/>
-      <c r="C299" s="249"/>
-      <c r="D299" s="249"/>
-      <c r="E299" s="249"/>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="25"/>
-      <c r="B300" s="250"/>
-      <c r="C300" s="249"/>
-      <c r="D300" s="249"/>
-      <c r="E300" s="249"/>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="A301" s="25"/>
-      <c r="B301" s="250"/>
-      <c r="C301" s="249"/>
-      <c r="D301" s="249"/>
-      <c r="E301" s="249"/>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="A302" s="25"/>
-      <c r="B302" s="250"/>
-      <c r="C302" s="249"/>
-      <c r="D302" s="249"/>
-      <c r="E302" s="249"/>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="A303" s="25"/>
-      <c r="B303" s="250"/>
-      <c r="C303" s="249"/>
-      <c r="D303" s="249"/>
-      <c r="E303" s="249"/>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="A304" s="25"/>
-      <c r="B304" s="250"/>
-      <c r="C304" s="249"/>
-      <c r="D304" s="249"/>
-      <c r="E304" s="249"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="25"/>
-      <c r="B305" s="250"/>
-      <c r="C305" s="249"/>
-      <c r="D305" s="249"/>
-      <c r="E305" s="249"/>
-    </row>
-    <row r="306" spans="1:5">
-      <c r="A306" s="25"/>
-      <c r="B306" s="250"/>
-      <c r="C306" s="249"/>
-      <c r="D306" s="249"/>
-      <c r="E306" s="249"/>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="A307" s="25"/>
-      <c r="B307" s="250"/>
-      <c r="C307" s="249"/>
-      <c r="D307" s="249"/>
-      <c r="E307" s="249"/>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="25"/>
-      <c r="B308" s="250"/>
-      <c r="C308" s="249"/>
-      <c r="D308" s="249"/>
-      <c r="E308" s="249"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="25"/>
-      <c r="B309" s="250"/>
-      <c r="C309" s="249"/>
-      <c r="D309" s="249"/>
-      <c r="E309" s="249"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="25"/>
-      <c r="B310" s="250"/>
-      <c r="C310" s="249"/>
-      <c r="D310" s="249"/>
-      <c r="E310" s="249"/>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="25"/>
-      <c r="B311" s="250"/>
-      <c r="C311" s="249"/>
-      <c r="D311" s="249"/>
-      <c r="E311" s="249"/>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="25"/>
-      <c r="B312" s="250"/>
-      <c r="C312" s="249"/>
-      <c r="D312" s="249"/>
-      <c r="E312" s="249"/>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="25"/>
-      <c r="B313" s="250"/>
-      <c r="C313" s="249"/>
-      <c r="D313" s="249"/>
-      <c r="E313" s="249"/>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="25"/>
-      <c r="B314" s="250"/>
-      <c r="C314" s="249"/>
-      <c r="D314" s="249"/>
-      <c r="E314" s="249"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="25"/>
-      <c r="B315" s="250"/>
-      <c r="C315" s="249"/>
-      <c r="D315" s="249"/>
-      <c r="E315" s="249"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="25"/>
-      <c r="B316" s="250"/>
-      <c r="C316" s="249"/>
-      <c r="D316" s="249"/>
-      <c r="E316" s="249"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="25"/>
-      <c r="B317" s="250"/>
-      <c r="C317" s="249"/>
-      <c r="D317" s="249"/>
-      <c r="E317" s="249"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="25"/>
-      <c r="B318" s="250"/>
-      <c r="C318" s="249"/>
-      <c r="D318" s="249"/>
-      <c r="E318" s="249"/>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="25"/>
-      <c r="B319" s="250"/>
-      <c r="C319" s="249"/>
-      <c r="D319" s="249"/>
-      <c r="E319" s="249"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="25"/>
-      <c r="B320" s="250"/>
-      <c r="C320" s="249"/>
-      <c r="D320" s="249"/>
-      <c r="E320" s="249"/>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A3:S3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="Q4:Q5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
     <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -8666,14 +5070,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="319" t="s">
+      <c r="A1" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
       <c r="L1" s="102"/>
       <c r="M1" s="262"/>
       <c r="N1" s="262"/>
@@ -8726,14 +5130,14 @@
       <c r="BI1" s="262"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="320" t="s">
+      <c r="A2" s="301" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
       <c r="L2" s="102"/>
       <c r="M2" s="262"/>
       <c r="N2" s="262"/>
@@ -8786,14 +5190,14 @@
       <c r="BI2" s="262"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="321" t="s">
+      <c r="A3" s="302" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="321"/>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="302"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="302"/>
       <c r="K3" s="262"/>
       <c r="L3" s="102"/>
       <c r="M3" s="262"/>
@@ -11193,12 +7597,12 @@
       <c r="BI34" s="262"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="322" t="s">
+      <c r="A35" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="323"/>
-      <c r="C35" s="323"/>
-      <c r="D35" s="324"/>
+      <c r="B35" s="304"/>
+      <c r="C35" s="304"/>
+      <c r="D35" s="305"/>
       <c r="E35" s="116"/>
       <c r="F35" s="118"/>
       <c r="G35" s="132"/>
@@ -11757,13 +8161,13 @@
         <v>191</v>
       </c>
       <c r="E43" s="116"/>
-      <c r="F43" s="325" t="s">
+      <c r="F43" s="306" t="s">
         <v>54</v>
       </c>
-      <c r="G43" s="325"/>
-      <c r="H43" s="325"/>
-      <c r="I43" s="325"/>
-      <c r="J43" s="325"/>
+      <c r="G43" s="306"/>
+      <c r="H43" s="306"/>
+      <c r="I43" s="306"/>
+      <c r="J43" s="306"/>
       <c r="K43" s="149"/>
       <c r="L43" s="107"/>
       <c r="M43" s="262"/>
@@ -13014,17 +9418,17 @@
       <c r="BI61" s="262"/>
     </row>
     <row r="62" spans="1:61">
-      <c r="A62" s="326" t="s">
+      <c r="A62" s="307" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="327"/>
+      <c r="B62" s="308"/>
       <c r="C62" s="156"/>
       <c r="D62" s="163"/>
       <c r="E62" s="124"/>
-      <c r="F62" s="313" t="s">
+      <c r="F62" s="294" t="s">
         <v>166</v>
       </c>
-      <c r="G62" s="313"/>
+      <c r="G62" s="294"/>
       <c r="H62" s="261"/>
       <c r="I62" s="261"/>
       <c r="J62" s="164" t="s">
@@ -17074,10 +13478,10 @@
       <c r="BI112" s="262"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="314" t="s">
+      <c r="A113" s="295" t="s">
         <v>97</v>
       </c>
-      <c r="B113" s="315"/>
+      <c r="B113" s="296"/>
       <c r="C113" s="179">
         <f>SUM(C37:C112)</f>
         <v>2383237</v>
@@ -17227,10 +13631,10 @@
       <c r="BI114" s="262"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="316" t="s">
+      <c r="A115" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="B115" s="317"/>
+      <c r="B115" s="298"/>
       <c r="C115" s="184">
         <f>C113+L136</f>
         <v>2383237</v>
@@ -19205,8 +15609,8 @@
       <c r="N169" s="266"/>
     </row>
     <row r="170" spans="5:14">
-      <c r="F170" s="318"/>
-      <c r="G170" s="318"/>
+      <c r="F170" s="299"/>
+      <c r="G170" s="299"/>
       <c r="H170" s="262"/>
       <c r="I170" s="122"/>
       <c r="J170" s="102"/>
@@ -19858,6 +16262,3602 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z320"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="10" ySplit="13" topLeftCell="K26" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="201"/>
+    <col min="2" max="2" width="9.140625" style="82"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="202"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="23.25">
+      <c r="A1" s="309" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="309"/>
+      <c r="P1" s="309"/>
+      <c r="Q1" s="309"/>
+      <c r="R1" s="309"/>
+      <c r="S1" s="309"/>
+    </row>
+    <row r="2" spans="1:26" s="203" customFormat="1" ht="18">
+      <c r="A2" s="310" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
+      <c r="M2" s="310"/>
+      <c r="N2" s="310"/>
+      <c r="O2" s="310"/>
+      <c r="P2" s="310"/>
+      <c r="Q2" s="310"/>
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+    </row>
+    <row r="3" spans="1:26" s="204" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A3" s="311" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="312"/>
+      <c r="C3" s="312"/>
+      <c r="D3" s="312"/>
+      <c r="E3" s="312"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="312"/>
+      <c r="H3" s="312"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="312"/>
+      <c r="K3" s="312"/>
+      <c r="L3" s="312"/>
+      <c r="M3" s="312"/>
+      <c r="N3" s="312"/>
+      <c r="O3" s="312"/>
+      <c r="P3" s="312"/>
+      <c r="Q3" s="312"/>
+      <c r="R3" s="312"/>
+      <c r="S3" s="313"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="29"/>
+    </row>
+    <row r="4" spans="1:26" s="206" customFormat="1">
+      <c r="A4" s="314" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="316" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="318" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="318" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="318" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="318" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="318" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="318" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="318" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="318" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="318" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="318" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="318" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="318" t="s">
+        <v>112</v>
+      </c>
+      <c r="O4" s="324" t="s">
+        <v>212</v>
+      </c>
+      <c r="P4" s="326" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="322" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="320" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="207"/>
+      <c r="V4" s="208"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="208"/>
+      <c r="Y4" s="208"/>
+    </row>
+    <row r="5" spans="1:26" s="206" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A5" s="315"/>
+      <c r="B5" s="317"/>
+      <c r="C5" s="319"/>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="319"/>
+      <c r="G5" s="319"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="319"/>
+      <c r="J5" s="319"/>
+      <c r="K5" s="319"/>
+      <c r="L5" s="319"/>
+      <c r="M5" s="319"/>
+      <c r="N5" s="319"/>
+      <c r="O5" s="325"/>
+      <c r="P5" s="327"/>
+      <c r="Q5" s="323"/>
+      <c r="R5" s="321"/>
+      <c r="S5" s="210" t="s">
+        <v>115</v>
+      </c>
+      <c r="U5" s="211"/>
+      <c r="V5" s="212"/>
+      <c r="W5" s="212"/>
+      <c r="X5" s="212"/>
+      <c r="Y5" s="212"/>
+      <c r="Z5" s="213"/>
+    </row>
+    <row r="6" spans="1:26" s="22" customFormat="1">
+      <c r="A6" s="214" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="215">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216">
+        <v>725</v>
+      </c>
+      <c r="E6" s="216"/>
+      <c r="F6" s="216"/>
+      <c r="G6" s="216">
+        <v>530</v>
+      </c>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="217">
+        <v>80</v>
+      </c>
+      <c r="K6" s="216">
+        <v>400</v>
+      </c>
+      <c r="L6" s="216"/>
+      <c r="M6" s="216"/>
+      <c r="N6" s="256">
+        <v>70</v>
+      </c>
+      <c r="O6" s="216"/>
+      <c r="P6" s="216"/>
+      <c r="Q6" s="216"/>
+      <c r="R6" s="218"/>
+      <c r="S6" s="219">
+        <f t="shared" ref="S6:S36" si="0">SUM(B6:R6)</f>
+        <v>3305</v>
+      </c>
+      <c r="T6" s="220"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" s="22" customFormat="1">
+      <c r="A7" s="214" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215">
+        <v>1170</v>
+      </c>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216">
+        <v>90</v>
+      </c>
+      <c r="F7" s="216"/>
+      <c r="G7" s="216">
+        <v>460</v>
+      </c>
+      <c r="H7" s="216">
+        <v>145</v>
+      </c>
+      <c r="I7" s="216"/>
+      <c r="J7" s="217">
+        <v>60</v>
+      </c>
+      <c r="K7" s="216">
+        <v>480</v>
+      </c>
+      <c r="L7" s="216"/>
+      <c r="M7" s="216"/>
+      <c r="N7" s="256">
+        <v>20</v>
+      </c>
+      <c r="O7" s="216"/>
+      <c r="P7" s="216"/>
+      <c r="Q7" s="216"/>
+      <c r="R7" s="218">
+        <v>100</v>
+      </c>
+      <c r="S7" s="219">
+        <f t="shared" si="0"/>
+        <v>2525</v>
+      </c>
+      <c r="T7" s="220"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+    </row>
+    <row r="8" spans="1:26" s="22" customFormat="1">
+      <c r="A8" s="214" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="222">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="215"/>
+      <c r="D8" s="223"/>
+      <c r="E8" s="223">
+        <v>420</v>
+      </c>
+      <c r="F8" s="223">
+        <v>480</v>
+      </c>
+      <c r="G8" s="223">
+        <v>730</v>
+      </c>
+      <c r="H8" s="223">
+        <v>150</v>
+      </c>
+      <c r="I8" s="223"/>
+      <c r="J8" s="224">
+        <v>60</v>
+      </c>
+      <c r="K8" s="223">
+        <v>480</v>
+      </c>
+      <c r="L8" s="223"/>
+      <c r="M8" s="223"/>
+      <c r="N8" s="257">
+        <v>20</v>
+      </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="223"/>
+      <c r="R8" s="225"/>
+      <c r="S8" s="219">
+        <f>SUM(B8:R8)</f>
+        <v>3340</v>
+      </c>
+      <c r="T8" s="220"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="5"/>
+    </row>
+    <row r="9" spans="1:26" s="22" customFormat="1">
+      <c r="A9" s="214" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="222">
+        <v>1500</v>
+      </c>
+      <c r="C9" s="215">
+        <v>400</v>
+      </c>
+      <c r="D9" s="223"/>
+      <c r="E9" s="223">
+        <v>1610</v>
+      </c>
+      <c r="F9" s="223"/>
+      <c r="G9" s="223">
+        <v>260</v>
+      </c>
+      <c r="H9" s="223">
+        <v>150</v>
+      </c>
+      <c r="I9" s="223"/>
+      <c r="J9" s="224">
+        <v>90</v>
+      </c>
+      <c r="K9" s="223">
+        <v>480</v>
+      </c>
+      <c r="L9" s="223"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="257">
+        <v>20</v>
+      </c>
+      <c r="O9" s="223"/>
+      <c r="P9" s="223"/>
+      <c r="Q9" s="223"/>
+      <c r="R9" s="225"/>
+      <c r="S9" s="219">
+        <f t="shared" si="0"/>
+        <v>4510</v>
+      </c>
+      <c r="T9" s="220"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+    </row>
+    <row r="10" spans="1:26" s="22" customFormat="1">
+      <c r="A10" s="214" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="222">
+        <v>500</v>
+      </c>
+      <c r="C10" s="215"/>
+      <c r="D10" s="223"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="223"/>
+      <c r="G10" s="223">
+        <v>210</v>
+      </c>
+      <c r="H10" s="223">
+        <v>110</v>
+      </c>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223">
+        <v>70</v>
+      </c>
+      <c r="K10" s="223">
+        <v>400</v>
+      </c>
+      <c r="L10" s="223"/>
+      <c r="M10" s="223"/>
+      <c r="N10" s="257"/>
+      <c r="O10" s="223"/>
+      <c r="P10" s="223"/>
+      <c r="Q10" s="223"/>
+      <c r="R10" s="225"/>
+      <c r="S10" s="219">
+        <f t="shared" si="0"/>
+        <v>1290</v>
+      </c>
+      <c r="T10" s="220"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" spans="1:26" s="22" customFormat="1">
+      <c r="A11" s="214" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="222">
+        <v>500</v>
+      </c>
+      <c r="C11" s="215">
+        <v>400</v>
+      </c>
+      <c r="D11" s="223"/>
+      <c r="E11" s="223">
+        <v>130</v>
+      </c>
+      <c r="F11" s="223"/>
+      <c r="G11" s="223">
+        <v>110</v>
+      </c>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223">
+        <v>30</v>
+      </c>
+      <c r="K11" s="223">
+        <v>400</v>
+      </c>
+      <c r="L11" s="223"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="257">
+        <v>20</v>
+      </c>
+      <c r="O11" s="223"/>
+      <c r="P11" s="223"/>
+      <c r="Q11" s="223"/>
+      <c r="R11" s="225"/>
+      <c r="S11" s="219">
+        <f t="shared" si="0"/>
+        <v>1590</v>
+      </c>
+      <c r="T11" s="220"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="48"/>
+    </row>
+    <row r="12" spans="1:26" s="22" customFormat="1">
+      <c r="A12" s="214" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="222">
+        <v>1500</v>
+      </c>
+      <c r="C12" s="215"/>
+      <c r="D12" s="223"/>
+      <c r="E12" s="223"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223">
+        <v>430</v>
+      </c>
+      <c r="H12" s="223">
+        <v>100</v>
+      </c>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223">
+        <v>30</v>
+      </c>
+      <c r="K12" s="223">
+        <v>480</v>
+      </c>
+      <c r="L12" s="223"/>
+      <c r="M12" s="223"/>
+      <c r="N12" s="257">
+        <v>20</v>
+      </c>
+      <c r="O12" s="223"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="225"/>
+      <c r="S12" s="219">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="T12" s="220"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="5"/>
+    </row>
+    <row r="13" spans="1:26" s="22" customFormat="1">
+      <c r="A13" s="214" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="222">
+        <v>500</v>
+      </c>
+      <c r="C13" s="215"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223">
+        <v>170</v>
+      </c>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223">
+        <v>310</v>
+      </c>
+      <c r="H13" s="223">
+        <v>130</v>
+      </c>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223">
+        <v>30</v>
+      </c>
+      <c r="K13" s="223">
+        <v>480</v>
+      </c>
+      <c r="L13" s="226"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="257">
+        <v>20</v>
+      </c>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="225"/>
+      <c r="S13" s="219">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="T13" s="220"/>
+      <c r="U13" s="221"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+    </row>
+    <row r="14" spans="1:26" s="22" customFormat="1">
+      <c r="A14" s="214" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="222">
+        <v>500</v>
+      </c>
+      <c r="C14" s="215"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223">
+        <v>300</v>
+      </c>
+      <c r="G14" s="223">
+        <v>110</v>
+      </c>
+      <c r="H14" s="223">
+        <v>120</v>
+      </c>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223">
+        <v>30</v>
+      </c>
+      <c r="K14" s="223">
+        <v>480</v>
+      </c>
+      <c r="L14" s="227"/>
+      <c r="M14" s="223"/>
+      <c r="N14" s="257">
+        <v>20</v>
+      </c>
+      <c r="O14" s="223"/>
+      <c r="P14" s="223"/>
+      <c r="Q14" s="223"/>
+      <c r="R14" s="225"/>
+      <c r="S14" s="219">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="T14" s="220"/>
+      <c r="U14" s="228"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="5"/>
+    </row>
+    <row r="15" spans="1:26" s="22" customFormat="1">
+      <c r="A15" s="214" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="222">
+        <v>1600</v>
+      </c>
+      <c r="C15" s="215"/>
+      <c r="D15" s="223"/>
+      <c r="E15" s="223">
+        <v>90</v>
+      </c>
+      <c r="F15" s="223"/>
+      <c r="G15" s="223">
+        <v>110</v>
+      </c>
+      <c r="H15" s="223">
+        <v>140</v>
+      </c>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223">
+        <v>30</v>
+      </c>
+      <c r="K15" s="223">
+        <v>480</v>
+      </c>
+      <c r="L15" s="216"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="257">
+        <v>20</v>
+      </c>
+      <c r="O15" s="223"/>
+      <c r="P15" s="223"/>
+      <c r="Q15" s="223"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="219">
+        <f t="shared" si="0"/>
+        <v>2470</v>
+      </c>
+      <c r="T15" s="220"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+    </row>
+    <row r="16" spans="1:26" s="22" customFormat="1">
+      <c r="A16" s="214" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="222">
+        <v>500</v>
+      </c>
+      <c r="C16" s="215"/>
+      <c r="D16" s="223">
+        <v>290</v>
+      </c>
+      <c r="E16" s="223"/>
+      <c r="F16" s="223"/>
+      <c r="G16" s="223">
+        <v>210</v>
+      </c>
+      <c r="H16" s="223">
+        <v>160</v>
+      </c>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223">
+        <v>30</v>
+      </c>
+      <c r="K16" s="223">
+        <v>480</v>
+      </c>
+      <c r="L16" s="223"/>
+      <c r="M16" s="223"/>
+      <c r="N16" s="257"/>
+      <c r="O16" s="223"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="225"/>
+      <c r="S16" s="219">
+        <f t="shared" si="0"/>
+        <v>1670</v>
+      </c>
+      <c r="T16" s="220"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="5"/>
+    </row>
+    <row r="17" spans="1:25" s="22" customFormat="1">
+      <c r="A17" s="214" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="222">
+        <v>500</v>
+      </c>
+      <c r="C17" s="215"/>
+      <c r="D17" s="223"/>
+      <c r="E17" s="223">
+        <v>50</v>
+      </c>
+      <c r="F17" s="223">
+        <v>50</v>
+      </c>
+      <c r="G17" s="223">
+        <v>110</v>
+      </c>
+      <c r="H17" s="223">
+        <v>120</v>
+      </c>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223">
+        <v>30</v>
+      </c>
+      <c r="K17" s="223">
+        <v>480</v>
+      </c>
+      <c r="L17" s="223"/>
+      <c r="M17" s="223"/>
+      <c r="N17" s="257">
+        <v>20</v>
+      </c>
+      <c r="O17" s="223"/>
+      <c r="P17" s="225"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="225"/>
+      <c r="S17" s="219">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="T17" s="220"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+    </row>
+    <row r="18" spans="1:25" s="22" customFormat="1">
+      <c r="A18" s="214" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="222">
+        <v>1500</v>
+      </c>
+      <c r="C18" s="215"/>
+      <c r="D18" s="223"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223">
+        <v>450</v>
+      </c>
+      <c r="H18" s="223">
+        <v>140</v>
+      </c>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223">
+        <v>30</v>
+      </c>
+      <c r="K18" s="223">
+        <v>480</v>
+      </c>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="257">
+        <v>40</v>
+      </c>
+      <c r="O18" s="223"/>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="225"/>
+      <c r="S18" s="219">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="T18" s="220"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="5"/>
+    </row>
+    <row r="19" spans="1:25" s="22" customFormat="1">
+      <c r="A19" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="222">
+        <v>500</v>
+      </c>
+      <c r="C19" s="215"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223">
+        <v>210</v>
+      </c>
+      <c r="H19" s="223">
+        <v>100</v>
+      </c>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223">
+        <v>20</v>
+      </c>
+      <c r="K19" s="223">
+        <v>480</v>
+      </c>
+      <c r="L19" s="223"/>
+      <c r="M19" s="223">
+        <v>933</v>
+      </c>
+      <c r="N19" s="258"/>
+      <c r="O19" s="223"/>
+      <c r="P19" s="225"/>
+      <c r="Q19" s="223"/>
+      <c r="R19" s="225"/>
+      <c r="S19" s="219">
+        <f t="shared" si="0"/>
+        <v>2243</v>
+      </c>
+      <c r="T19" s="220"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+    </row>
+    <row r="20" spans="1:25" s="22" customFormat="1">
+      <c r="A20" s="214" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="222">
+        <v>500</v>
+      </c>
+      <c r="C20" s="215"/>
+      <c r="D20" s="223">
+        <v>50</v>
+      </c>
+      <c r="E20" s="223">
+        <v>50</v>
+      </c>
+      <c r="F20" s="257"/>
+      <c r="G20" s="223">
+        <v>110</v>
+      </c>
+      <c r="H20" s="223">
+        <v>190</v>
+      </c>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223">
+        <v>30</v>
+      </c>
+      <c r="K20" s="223">
+        <v>480</v>
+      </c>
+      <c r="L20" s="223"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="257">
+        <v>20</v>
+      </c>
+      <c r="O20" s="223"/>
+      <c r="P20" s="223"/>
+      <c r="Q20" s="223"/>
+      <c r="R20" s="225"/>
+      <c r="S20" s="219">
+        <f t="shared" si="0"/>
+        <v>1430</v>
+      </c>
+      <c r="T20" s="220"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="5"/>
+    </row>
+    <row r="21" spans="1:25" s="22" customFormat="1">
+      <c r="A21" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="222">
+        <v>1950</v>
+      </c>
+      <c r="C21" s="215">
+        <v>400</v>
+      </c>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223">
+        <v>110</v>
+      </c>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223">
+        <v>20</v>
+      </c>
+      <c r="K21" s="223">
+        <v>480</v>
+      </c>
+      <c r="L21" s="223"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="257">
+        <v>20</v>
+      </c>
+      <c r="O21" s="223"/>
+      <c r="P21" s="223"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="225">
+        <v>50</v>
+      </c>
+      <c r="S21" s="219">
+        <f t="shared" si="0"/>
+        <v>3030</v>
+      </c>
+      <c r="T21" s="220"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:25" s="22" customFormat="1">
+      <c r="A22" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="222">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="215">
+        <v>400</v>
+      </c>
+      <c r="D22" s="223"/>
+      <c r="E22" s="223">
+        <v>50</v>
+      </c>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223">
+        <v>210</v>
+      </c>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223">
+        <v>20</v>
+      </c>
+      <c r="K22" s="223">
+        <v>480</v>
+      </c>
+      <c r="L22" s="223"/>
+      <c r="M22" s="223"/>
+      <c r="N22" s="257"/>
+      <c r="O22" s="223"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="225"/>
+      <c r="S22" s="219">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="T22" s="220"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:25" s="230" customFormat="1">
+      <c r="A23" s="214" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="222">
+        <v>300</v>
+      </c>
+      <c r="C23" s="215"/>
+      <c r="D23" s="223">
+        <v>35</v>
+      </c>
+      <c r="E23" s="223"/>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223">
+        <v>110</v>
+      </c>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223">
+        <v>40</v>
+      </c>
+      <c r="K23" s="223">
+        <v>480</v>
+      </c>
+      <c r="L23" s="223"/>
+      <c r="M23" s="223"/>
+      <c r="N23" s="257">
+        <v>50</v>
+      </c>
+      <c r="O23" s="223"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="225"/>
+      <c r="S23" s="219">
+        <f t="shared" si="0"/>
+        <v>1015</v>
+      </c>
+      <c r="T23" s="229"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" s="22" customFormat="1">
+      <c r="A24" s="214" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="222">
+        <v>1000</v>
+      </c>
+      <c r="C24" s="215"/>
+      <c r="D24" s="223"/>
+      <c r="E24" s="223">
+        <v>500</v>
+      </c>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223">
+        <v>280</v>
+      </c>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223">
+        <v>30</v>
+      </c>
+      <c r="K24" s="223">
+        <v>480</v>
+      </c>
+      <c r="L24" s="223"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="257">
+        <v>20</v>
+      </c>
+      <c r="O24" s="223"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="225"/>
+      <c r="S24" s="219">
+        <f t="shared" si="0"/>
+        <v>2310</v>
+      </c>
+      <c r="T24" s="220"/>
+      <c r="U24" s="7"/>
+      <c r="W24" s="231"/>
+      <c r="X24" s="231"/>
+      <c r="Y24" s="231"/>
+    </row>
+    <row r="25" spans="1:25" s="230" customFormat="1">
+      <c r="A25" s="214" t="s">
+        <v>202</v>
+      </c>
+      <c r="B25" s="222">
+        <v>1000</v>
+      </c>
+      <c r="C25" s="215">
+        <v>450</v>
+      </c>
+      <c r="D25" s="223">
+        <v>50</v>
+      </c>
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223">
+        <v>210</v>
+      </c>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223">
+        <v>30</v>
+      </c>
+      <c r="K25" s="223">
+        <v>480</v>
+      </c>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="257">
+        <v>20</v>
+      </c>
+      <c r="O25" s="223"/>
+      <c r="P25" s="223"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="225">
+        <v>200</v>
+      </c>
+      <c r="S25" s="219">
+        <f t="shared" si="0"/>
+        <v>2440</v>
+      </c>
+      <c r="T25" s="229"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:25" s="22" customFormat="1">
+      <c r="A26" s="214" t="s">
+        <v>204</v>
+      </c>
+      <c r="B26" s="222">
+        <v>800</v>
+      </c>
+      <c r="C26" s="215"/>
+      <c r="D26" s="223"/>
+      <c r="E26" s="223">
+        <v>1830</v>
+      </c>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223">
+        <v>180</v>
+      </c>
+      <c r="H26" s="223">
+        <v>215</v>
+      </c>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223">
+        <v>40</v>
+      </c>
+      <c r="K26" s="223">
+        <v>480</v>
+      </c>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="257">
+        <v>20</v>
+      </c>
+      <c r="O26" s="223"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="225">
+        <v>200</v>
+      </c>
+      <c r="S26" s="219">
+        <f t="shared" si="0"/>
+        <v>3765</v>
+      </c>
+      <c r="T26" s="220"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" s="22" customFormat="1">
+      <c r="A27" s="214" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="222">
+        <v>1050</v>
+      </c>
+      <c r="C27" s="215">
+        <v>400</v>
+      </c>
+      <c r="D27" s="223"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223">
+        <v>85</v>
+      </c>
+      <c r="G27" s="223">
+        <v>170</v>
+      </c>
+      <c r="H27" s="223">
+        <v>180</v>
+      </c>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223">
+        <v>30</v>
+      </c>
+      <c r="K27" s="223">
+        <v>620</v>
+      </c>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="257">
+        <v>20</v>
+      </c>
+      <c r="O27" s="223"/>
+      <c r="P27" s="223"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="225">
+        <v>500</v>
+      </c>
+      <c r="S27" s="219">
+        <f t="shared" si="0"/>
+        <v>3055</v>
+      </c>
+      <c r="T27" s="220"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:25" s="22" customFormat="1">
+      <c r="A28" s="214" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="222">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="215">
+        <v>400</v>
+      </c>
+      <c r="D28" s="223">
+        <v>1200</v>
+      </c>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223">
+        <v>310</v>
+      </c>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223">
+        <v>30</v>
+      </c>
+      <c r="K28" s="223">
+        <v>480</v>
+      </c>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="257"/>
+      <c r="O28" s="223"/>
+      <c r="P28" s="223"/>
+      <c r="Q28" s="223"/>
+      <c r="R28" s="225">
+        <v>100</v>
+      </c>
+      <c r="S28" s="219">
+        <f t="shared" si="0"/>
+        <v>4020</v>
+      </c>
+      <c r="T28" s="220"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="232"/>
+      <c r="W28" s="232"/>
+    </row>
+    <row r="29" spans="1:25" s="22" customFormat="1">
+      <c r="A29" s="214" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" s="222">
+        <v>300</v>
+      </c>
+      <c r="C29" s="215"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223">
+        <v>110</v>
+      </c>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223">
+        <v>20</v>
+      </c>
+      <c r="K29" s="223">
+        <v>480</v>
+      </c>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="257">
+        <v>60</v>
+      </c>
+      <c r="O29" s="223"/>
+      <c r="P29" s="223"/>
+      <c r="Q29" s="223"/>
+      <c r="R29" s="225">
+        <v>100</v>
+      </c>
+      <c r="S29" s="219">
+        <f t="shared" si="0"/>
+        <v>1070</v>
+      </c>
+      <c r="T29" s="220"/>
+      <c r="U29" s="232"/>
+      <c r="V29" s="233"/>
+      <c r="W29" s="233"/>
+    </row>
+    <row r="30" spans="1:25" s="22" customFormat="1">
+      <c r="A30" s="214" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="222">
+        <v>1000</v>
+      </c>
+      <c r="C30" s="215"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223">
+        <v>40</v>
+      </c>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223">
+        <v>180</v>
+      </c>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223">
+        <v>30</v>
+      </c>
+      <c r="K30" s="223">
+        <v>480</v>
+      </c>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="257">
+        <v>20</v>
+      </c>
+      <c r="O30" s="223"/>
+      <c r="P30" s="223"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="225">
+        <v>1900</v>
+      </c>
+      <c r="S30" s="219">
+        <f t="shared" si="0"/>
+        <v>3650</v>
+      </c>
+      <c r="T30" s="220"/>
+      <c r="U30" s="232"/>
+      <c r="V30" s="232"/>
+      <c r="W30" s="232"/>
+    </row>
+    <row r="31" spans="1:25" s="22" customFormat="1">
+      <c r="A31" s="214" t="s">
+        <v>210</v>
+      </c>
+      <c r="B31" s="222">
+        <v>1500</v>
+      </c>
+      <c r="C31" s="215"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223">
+        <v>210</v>
+      </c>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="234">
+        <v>30</v>
+      </c>
+      <c r="K31" s="223">
+        <v>480</v>
+      </c>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="257">
+        <v>20</v>
+      </c>
+      <c r="O31" s="223"/>
+      <c r="P31" s="223"/>
+      <c r="Q31" s="223"/>
+      <c r="R31" s="225">
+        <v>100</v>
+      </c>
+      <c r="S31" s="219">
+        <f t="shared" si="0"/>
+        <v>2340</v>
+      </c>
+      <c r="T31" s="220"/>
+    </row>
+    <row r="32" spans="1:25" s="230" customFormat="1">
+      <c r="A32" s="214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="222">
+        <v>300</v>
+      </c>
+      <c r="C32" s="215"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223">
+        <v>110</v>
+      </c>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223">
+        <v>30</v>
+      </c>
+      <c r="K32" s="223">
+        <v>480</v>
+      </c>
+      <c r="L32" s="223">
+        <v>799</v>
+      </c>
+      <c r="M32" s="223"/>
+      <c r="N32" s="257">
+        <v>100</v>
+      </c>
+      <c r="O32" s="223">
+        <v>1500</v>
+      </c>
+      <c r="P32" s="223">
+        <v>10000</v>
+      </c>
+      <c r="Q32" s="223"/>
+      <c r="R32" s="225">
+        <v>100</v>
+      </c>
+      <c r="S32" s="219">
+        <f t="shared" si="0"/>
+        <v>13419</v>
+      </c>
+      <c r="T32" s="229"/>
+    </row>
+    <row r="33" spans="1:20" s="22" customFormat="1">
+      <c r="A33" s="214"/>
+      <c r="B33" s="222"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="257"/>
+      <c r="O33" s="223"/>
+      <c r="P33" s="223"/>
+      <c r="Q33" s="223"/>
+      <c r="R33" s="225"/>
+      <c r="S33" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="220"/>
+    </row>
+    <row r="34" spans="1:20" s="22" customFormat="1">
+      <c r="A34" s="214"/>
+      <c r="B34" s="222"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="223"/>
+      <c r="K34" s="223"/>
+      <c r="L34" s="223"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="257"/>
+      <c r="O34" s="223"/>
+      <c r="P34" s="223"/>
+      <c r="Q34" s="223"/>
+      <c r="R34" s="225"/>
+      <c r="S34" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="220"/>
+    </row>
+    <row r="35" spans="1:20" s="22" customFormat="1">
+      <c r="A35" s="214"/>
+      <c r="B35" s="222"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="223"/>
+      <c r="K35" s="223"/>
+      <c r="L35" s="223"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="257"/>
+      <c r="O35" s="223"/>
+      <c r="P35" s="223"/>
+      <c r="Q35" s="223"/>
+      <c r="R35" s="225"/>
+      <c r="S35" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="220"/>
+    </row>
+    <row r="36" spans="1:20" s="22" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A36" s="214"/>
+      <c r="B36" s="235"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="237"/>
+      <c r="F36" s="237"/>
+      <c r="G36" s="237"/>
+      <c r="H36" s="237"/>
+      <c r="I36" s="237"/>
+      <c r="J36" s="237"/>
+      <c r="K36" s="237"/>
+      <c r="L36" s="237"/>
+      <c r="M36" s="237"/>
+      <c r="N36" s="259"/>
+      <c r="O36" s="237"/>
+      <c r="P36" s="237"/>
+      <c r="Q36" s="237"/>
+      <c r="R36" s="238"/>
+      <c r="S36" s="219">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="220"/>
+    </row>
+    <row r="37" spans="1:20" s="203" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A37" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="240">
+        <f>SUM(B6:B36)</f>
+        <v>24300</v>
+      </c>
+      <c r="C37" s="241">
+        <f t="shared" ref="C37:R37" si="1">SUM(C6:C36)</f>
+        <v>4020</v>
+      </c>
+      <c r="D37" s="241">
+        <f t="shared" si="1"/>
+        <v>2350</v>
+      </c>
+      <c r="E37" s="241">
+        <f t="shared" si="1"/>
+        <v>5030</v>
+      </c>
+      <c r="F37" s="241">
+        <f t="shared" si="1"/>
+        <v>915</v>
+      </c>
+      <c r="G37" s="241">
+        <f>SUM(G6:G36)</f>
+        <v>6540</v>
+      </c>
+      <c r="H37" s="241">
+        <f t="shared" si="1"/>
+        <v>2150</v>
+      </c>
+      <c r="I37" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="241">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="K37" s="241">
+        <f t="shared" si="1"/>
+        <v>12860</v>
+      </c>
+      <c r="L37" s="241">
+        <f t="shared" si="1"/>
+        <v>799</v>
+      </c>
+      <c r="M37" s="241">
+        <f t="shared" si="1"/>
+        <v>933</v>
+      </c>
+      <c r="N37" s="260">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="O37" s="241">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="P37" s="241">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="Q37" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="242">
+        <f t="shared" si="1"/>
+        <v>3350</v>
+      </c>
+      <c r="S37" s="243">
+        <f>SUM(S6:S36)</f>
+        <v>76407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="245"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="246"/>
+      <c r="E38" s="246"/>
+      <c r="F38" s="246"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
+      <c r="M38" s="246"/>
+      <c r="N38" s="246"/>
+      <c r="O38" s="246"/>
+      <c r="P38" s="247"/>
+      <c r="Q38" s="247"/>
+      <c r="R38" s="247"/>
+      <c r="S38" s="248"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
+      <c r="H39" s="249"/>
+      <c r="I39" s="249"/>
+      <c r="J39" s="249"/>
+      <c r="T39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="25"/>
+      <c r="B40" s="250"/>
+      <c r="C40" s="249"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="25"/>
+      <c r="B41" s="250"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="25"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="249"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" s="25"/>
+      <c r="B43" s="250"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" s="25"/>
+      <c r="B44" s="250"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" s="25"/>
+      <c r="B45" s="250"/>
+      <c r="C45" s="249"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" s="25"/>
+      <c r="B46" s="250"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" s="25"/>
+      <c r="B47" s="250"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" s="25"/>
+      <c r="B48" s="250"/>
+      <c r="C48" s="249"/>
+      <c r="D48" s="249"/>
+      <c r="E48" s="249"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="25"/>
+      <c r="B49" s="250"/>
+      <c r="C49" s="249"/>
+      <c r="D49" s="249"/>
+      <c r="E49" s="249"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="25"/>
+      <c r="B50" s="250"/>
+      <c r="C50" s="249"/>
+      <c r="D50" s="249"/>
+      <c r="E50" s="249"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="25"/>
+      <c r="B51" s="250"/>
+      <c r="C51" s="249"/>
+      <c r="D51" s="249"/>
+      <c r="E51" s="249"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="25"/>
+      <c r="B52" s="250"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="249"/>
+      <c r="E52" s="249"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="25"/>
+      <c r="B53" s="250"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="25"/>
+      <c r="B54" s="250"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="25"/>
+      <c r="B55" s="250"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="249"/>
+      <c r="E55" s="249"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="25"/>
+      <c r="B56" s="250"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249"/>
+      <c r="E56" s="249"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="25"/>
+      <c r="B57" s="250"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="25"/>
+      <c r="B58" s="250"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="25"/>
+      <c r="B59" s="250"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="25"/>
+      <c r="B60" s="250"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="25"/>
+      <c r="B61" s="250"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="25"/>
+      <c r="B62" s="250"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="25"/>
+      <c r="B63" s="250"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="25"/>
+      <c r="B64" s="250"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="249"/>
+      <c r="E64" s="249"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="25"/>
+      <c r="B65" s="250"/>
+      <c r="C65" s="249"/>
+      <c r="D65" s="249"/>
+      <c r="E65" s="249"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="25"/>
+      <c r="B66" s="250"/>
+      <c r="C66" s="249"/>
+      <c r="D66" s="249"/>
+      <c r="E66" s="249"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="25"/>
+      <c r="B67" s="250"/>
+      <c r="C67" s="249"/>
+      <c r="D67" s="249"/>
+      <c r="E67" s="249"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="25"/>
+      <c r="B68" s="250"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="249"/>
+      <c r="E68" s="249"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="25"/>
+      <c r="B69" s="250"/>
+      <c r="C69" s="249"/>
+      <c r="D69" s="249"/>
+      <c r="E69" s="249"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="25"/>
+      <c r="B70" s="250"/>
+      <c r="C70" s="249"/>
+      <c r="D70" s="249"/>
+      <c r="E70" s="249"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="25"/>
+      <c r="B71" s="250"/>
+      <c r="C71" s="249"/>
+      <c r="D71" s="249"/>
+      <c r="E71" s="249"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="25"/>
+      <c r="B72" s="250"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="249"/>
+      <c r="E72" s="249"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="25"/>
+      <c r="B73" s="250"/>
+      <c r="C73" s="249"/>
+      <c r="D73" s="249"/>
+      <c r="E73" s="249"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="25"/>
+      <c r="B74" s="250"/>
+      <c r="C74" s="249"/>
+      <c r="D74" s="249"/>
+      <c r="E74" s="249"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="25"/>
+      <c r="B75" s="250"/>
+      <c r="C75" s="249"/>
+      <c r="D75" s="249"/>
+      <c r="E75" s="249"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="25"/>
+      <c r="B76" s="250"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="249"/>
+      <c r="E76" s="249"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="25"/>
+      <c r="B77" s="250"/>
+      <c r="C77" s="249"/>
+      <c r="D77" s="249"/>
+      <c r="E77" s="249"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="25"/>
+      <c r="B78" s="250"/>
+      <c r="C78" s="249"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="249"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="25"/>
+      <c r="B79" s="250"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="249"/>
+      <c r="E79" s="249"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="25"/>
+      <c r="B80" s="250"/>
+      <c r="C80" s="249"/>
+      <c r="D80" s="249"/>
+      <c r="E80" s="249"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="25"/>
+      <c r="B81" s="250"/>
+      <c r="C81" s="249"/>
+      <c r="D81" s="249"/>
+      <c r="E81" s="249"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="25"/>
+      <c r="B82" s="250"/>
+      <c r="C82" s="249"/>
+      <c r="D82" s="249"/>
+      <c r="E82" s="249"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="25"/>
+      <c r="B83" s="250"/>
+      <c r="C83" s="249"/>
+      <c r="D83" s="249"/>
+      <c r="E83" s="249"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="25"/>
+      <c r="B84" s="250"/>
+      <c r="C84" s="249"/>
+      <c r="D84" s="249"/>
+      <c r="E84" s="249"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="25"/>
+      <c r="B85" s="250"/>
+      <c r="C85" s="249"/>
+      <c r="D85" s="249"/>
+      <c r="E85" s="249"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="25"/>
+      <c r="B86" s="250"/>
+      <c r="C86" s="249"/>
+      <c r="D86" s="249"/>
+      <c r="E86" s="249"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="25"/>
+      <c r="B87" s="250"/>
+      <c r="C87" s="249"/>
+      <c r="D87" s="249"/>
+      <c r="E87" s="249"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="25"/>
+      <c r="B88" s="250"/>
+      <c r="C88" s="249"/>
+      <c r="D88" s="249"/>
+      <c r="E88" s="249"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="25"/>
+      <c r="B89" s="250"/>
+      <c r="C89" s="249"/>
+      <c r="D89" s="249"/>
+      <c r="E89" s="249"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="25"/>
+      <c r="B90" s="250"/>
+      <c r="C90" s="249"/>
+      <c r="D90" s="249"/>
+      <c r="E90" s="249"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="25"/>
+      <c r="B91" s="250"/>
+      <c r="C91" s="249"/>
+      <c r="D91" s="249"/>
+      <c r="E91" s="249"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="25"/>
+      <c r="B92" s="250"/>
+      <c r="C92" s="249"/>
+      <c r="D92" s="249"/>
+      <c r="E92" s="249"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="25"/>
+      <c r="B93" s="250"/>
+      <c r="C93" s="249"/>
+      <c r="D93" s="249"/>
+      <c r="E93" s="249"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="25"/>
+      <c r="B94" s="250"/>
+      <c r="C94" s="249"/>
+      <c r="D94" s="249"/>
+      <c r="E94" s="249"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="25"/>
+      <c r="B95" s="250"/>
+      <c r="C95" s="249"/>
+      <c r="D95" s="249"/>
+      <c r="E95" s="249"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="25"/>
+      <c r="B96" s="250"/>
+      <c r="C96" s="249"/>
+      <c r="D96" s="249"/>
+      <c r="E96" s="249"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="25"/>
+      <c r="B97" s="250"/>
+      <c r="C97" s="249"/>
+      <c r="D97" s="249"/>
+      <c r="E97" s="249"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="25"/>
+      <c r="B98" s="250"/>
+      <c r="C98" s="249"/>
+      <c r="D98" s="249"/>
+      <c r="E98" s="249"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="25"/>
+      <c r="B99" s="250"/>
+      <c r="C99" s="249"/>
+      <c r="D99" s="249"/>
+      <c r="E99" s="249"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="25"/>
+      <c r="B100" s="250"/>
+      <c r="C100" s="249"/>
+      <c r="D100" s="249"/>
+      <c r="E100" s="249"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="25"/>
+      <c r="B101" s="250"/>
+      <c r="C101" s="249"/>
+      <c r="D101" s="249"/>
+      <c r="E101" s="249"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="25"/>
+      <c r="B102" s="250"/>
+      <c r="C102" s="249"/>
+      <c r="D102" s="249"/>
+      <c r="E102" s="249"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="25"/>
+      <c r="B103" s="250"/>
+      <c r="C103" s="249"/>
+      <c r="D103" s="249"/>
+      <c r="E103" s="249"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="25"/>
+      <c r="B104" s="250"/>
+      <c r="C104" s="249"/>
+      <c r="D104" s="249"/>
+      <c r="E104" s="249"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="25"/>
+      <c r="B105" s="250"/>
+      <c r="C105" s="249"/>
+      <c r="D105" s="249"/>
+      <c r="E105" s="249"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="25"/>
+      <c r="B106" s="250"/>
+      <c r="C106" s="249"/>
+      <c r="D106" s="249"/>
+      <c r="E106" s="249"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="25"/>
+      <c r="B107" s="250"/>
+      <c r="C107" s="249"/>
+      <c r="D107" s="249"/>
+      <c r="E107" s="249"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="25"/>
+      <c r="B108" s="250"/>
+      <c r="C108" s="249"/>
+      <c r="D108" s="249"/>
+      <c r="E108" s="249"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="25"/>
+      <c r="B109" s="250"/>
+      <c r="C109" s="249"/>
+      <c r="D109" s="249"/>
+      <c r="E109" s="249"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="25"/>
+      <c r="B110" s="250"/>
+      <c r="C110" s="249"/>
+      <c r="D110" s="249"/>
+      <c r="E110" s="249"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="25"/>
+      <c r="B111" s="250"/>
+      <c r="C111" s="249"/>
+      <c r="D111" s="249"/>
+      <c r="E111" s="249"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="25"/>
+      <c r="B112" s="250"/>
+      <c r="C112" s="249"/>
+      <c r="D112" s="249"/>
+      <c r="E112" s="249"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="25"/>
+      <c r="B113" s="250"/>
+      <c r="C113" s="249"/>
+      <c r="D113" s="249"/>
+      <c r="E113" s="249"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="25"/>
+      <c r="B114" s="250"/>
+      <c r="C114" s="249"/>
+      <c r="D114" s="249"/>
+      <c r="E114" s="249"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="25"/>
+      <c r="B115" s="250"/>
+      <c r="C115" s="249"/>
+      <c r="D115" s="249"/>
+      <c r="E115" s="249"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="25"/>
+      <c r="B116" s="250"/>
+      <c r="C116" s="249"/>
+      <c r="D116" s="249"/>
+      <c r="E116" s="249"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="25"/>
+      <c r="B117" s="250"/>
+      <c r="C117" s="249"/>
+      <c r="D117" s="249"/>
+      <c r="E117" s="249"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="25"/>
+      <c r="B118" s="250"/>
+      <c r="C118" s="249"/>
+      <c r="D118" s="249"/>
+      <c r="E118" s="249"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="25"/>
+      <c r="B119" s="250"/>
+      <c r="C119" s="249"/>
+      <c r="D119" s="249"/>
+      <c r="E119" s="249"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="25"/>
+      <c r="B120" s="250"/>
+      <c r="C120" s="249"/>
+      <c r="D120" s="249"/>
+      <c r="E120" s="249"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="25"/>
+      <c r="B121" s="250"/>
+      <c r="C121" s="249"/>
+      <c r="D121" s="249"/>
+      <c r="E121" s="249"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="25"/>
+      <c r="B122" s="250"/>
+      <c r="C122" s="249"/>
+      <c r="D122" s="249"/>
+      <c r="E122" s="249"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="25"/>
+      <c r="B123" s="250"/>
+      <c r="C123" s="249"/>
+      <c r="D123" s="249"/>
+      <c r="E123" s="249"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="25"/>
+      <c r="B124" s="250"/>
+      <c r="C124" s="249"/>
+      <c r="D124" s="249"/>
+      <c r="E124" s="249"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="25"/>
+      <c r="B125" s="250"/>
+      <c r="C125" s="249"/>
+      <c r="D125" s="249"/>
+      <c r="E125" s="249"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="25"/>
+      <c r="B126" s="250"/>
+      <c r="C126" s="249"/>
+      <c r="D126" s="249"/>
+      <c r="E126" s="249"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="25"/>
+      <c r="B127" s="250"/>
+      <c r="C127" s="249"/>
+      <c r="D127" s="249"/>
+      <c r="E127" s="249"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="25"/>
+      <c r="B128" s="250"/>
+      <c r="C128" s="249"/>
+      <c r="D128" s="249"/>
+      <c r="E128" s="249"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="25"/>
+      <c r="B129" s="250"/>
+      <c r="C129" s="249"/>
+      <c r="D129" s="249"/>
+      <c r="E129" s="249"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="25"/>
+      <c r="B130" s="250"/>
+      <c r="C130" s="249"/>
+      <c r="D130" s="249"/>
+      <c r="E130" s="249"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="25"/>
+      <c r="B131" s="250"/>
+      <c r="C131" s="249"/>
+      <c r="D131" s="249"/>
+      <c r="E131" s="249"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="25"/>
+      <c r="B132" s="250"/>
+      <c r="C132" s="249"/>
+      <c r="D132" s="249"/>
+      <c r="E132" s="249"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="25"/>
+      <c r="B133" s="250"/>
+      <c r="C133" s="249"/>
+      <c r="D133" s="249"/>
+      <c r="E133" s="249"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="25"/>
+      <c r="B134" s="250"/>
+      <c r="C134" s="249"/>
+      <c r="D134" s="249"/>
+      <c r="E134" s="249"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="25"/>
+      <c r="B135" s="250"/>
+      <c r="C135" s="249"/>
+      <c r="D135" s="249"/>
+      <c r="E135" s="249"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="25"/>
+      <c r="B136" s="250"/>
+      <c r="C136" s="249"/>
+      <c r="D136" s="249"/>
+      <c r="E136" s="249"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="25"/>
+      <c r="B137" s="250"/>
+      <c r="C137" s="249"/>
+      <c r="D137" s="249"/>
+      <c r="E137" s="249"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="25"/>
+      <c r="B138" s="250"/>
+      <c r="C138" s="249"/>
+      <c r="D138" s="249"/>
+      <c r="E138" s="249"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="25"/>
+      <c r="B139" s="250"/>
+      <c r="C139" s="249"/>
+      <c r="D139" s="249"/>
+      <c r="E139" s="249"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="25"/>
+      <c r="B140" s="250"/>
+      <c r="C140" s="249"/>
+      <c r="D140" s="249"/>
+      <c r="E140" s="249"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="25"/>
+      <c r="B141" s="250"/>
+      <c r="C141" s="249"/>
+      <c r="D141" s="249"/>
+      <c r="E141" s="249"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="25"/>
+      <c r="B142" s="250"/>
+      <c r="C142" s="249"/>
+      <c r="D142" s="249"/>
+      <c r="E142" s="249"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="25"/>
+      <c r="B143" s="250"/>
+      <c r="C143" s="249"/>
+      <c r="D143" s="249"/>
+      <c r="E143" s="249"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="25"/>
+      <c r="B144" s="250"/>
+      <c r="C144" s="249"/>
+      <c r="D144" s="249"/>
+      <c r="E144" s="249"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="25"/>
+      <c r="B145" s="250"/>
+      <c r="C145" s="249"/>
+      <c r="D145" s="249"/>
+      <c r="E145" s="249"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="25"/>
+      <c r="B146" s="250"/>
+      <c r="C146" s="249"/>
+      <c r="D146" s="249"/>
+      <c r="E146" s="249"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="25"/>
+      <c r="B147" s="250"/>
+      <c r="C147" s="249"/>
+      <c r="D147" s="249"/>
+      <c r="E147" s="249"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="25"/>
+      <c r="B148" s="250"/>
+      <c r="C148" s="249"/>
+      <c r="D148" s="249"/>
+      <c r="E148" s="249"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="25"/>
+      <c r="B149" s="250"/>
+      <c r="C149" s="249"/>
+      <c r="D149" s="249"/>
+      <c r="E149" s="249"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="25"/>
+      <c r="B150" s="250"/>
+      <c r="C150" s="249"/>
+      <c r="D150" s="249"/>
+      <c r="E150" s="249"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="25"/>
+      <c r="B151" s="250"/>
+      <c r="C151" s="249"/>
+      <c r="D151" s="249"/>
+      <c r="E151" s="249"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="25"/>
+      <c r="B152" s="250"/>
+      <c r="C152" s="249"/>
+      <c r="D152" s="249"/>
+      <c r="E152" s="249"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="25"/>
+      <c r="B153" s="250"/>
+      <c r="C153" s="249"/>
+      <c r="D153" s="249"/>
+      <c r="E153" s="249"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="25"/>
+      <c r="B154" s="250"/>
+      <c r="C154" s="249"/>
+      <c r="D154" s="249"/>
+      <c r="E154" s="249"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="25"/>
+      <c r="B155" s="250"/>
+      <c r="C155" s="249"/>
+      <c r="D155" s="249"/>
+      <c r="E155" s="249"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="25"/>
+      <c r="B156" s="250"/>
+      <c r="C156" s="249"/>
+      <c r="D156" s="249"/>
+      <c r="E156" s="249"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="25"/>
+      <c r="B157" s="250"/>
+      <c r="C157" s="249"/>
+      <c r="D157" s="249"/>
+      <c r="E157" s="249"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="25"/>
+      <c r="B158" s="250"/>
+      <c r="C158" s="249"/>
+      <c r="D158" s="249"/>
+      <c r="E158" s="249"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="25"/>
+      <c r="B159" s="250"/>
+      <c r="C159" s="249"/>
+      <c r="D159" s="249"/>
+      <c r="E159" s="249"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="25"/>
+      <c r="B160" s="250"/>
+      <c r="C160" s="249"/>
+      <c r="D160" s="249"/>
+      <c r="E160" s="249"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="25"/>
+      <c r="B161" s="250"/>
+      <c r="C161" s="249"/>
+      <c r="D161" s="249"/>
+      <c r="E161" s="249"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="25"/>
+      <c r="B162" s="250"/>
+      <c r="C162" s="249"/>
+      <c r="D162" s="249"/>
+      <c r="E162" s="249"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="25"/>
+      <c r="B163" s="250"/>
+      <c r="C163" s="249"/>
+      <c r="D163" s="249"/>
+      <c r="E163" s="249"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="25"/>
+      <c r="B164" s="250"/>
+      <c r="C164" s="249"/>
+      <c r="D164" s="249"/>
+      <c r="E164" s="249"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="25"/>
+      <c r="B165" s="250"/>
+      <c r="C165" s="249"/>
+      <c r="D165" s="249"/>
+      <c r="E165" s="249"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="25"/>
+      <c r="B166" s="250"/>
+      <c r="C166" s="249"/>
+      <c r="D166" s="249"/>
+      <c r="E166" s="249"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="25"/>
+      <c r="B167" s="250"/>
+      <c r="C167" s="249"/>
+      <c r="D167" s="249"/>
+      <c r="E167" s="249"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="25"/>
+      <c r="B168" s="250"/>
+      <c r="C168" s="249"/>
+      <c r="D168" s="249"/>
+      <c r="E168" s="249"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="25"/>
+      <c r="B169" s="250"/>
+      <c r="C169" s="249"/>
+      <c r="D169" s="249"/>
+      <c r="E169" s="249"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="25"/>
+      <c r="B170" s="250"/>
+      <c r="C170" s="249"/>
+      <c r="D170" s="249"/>
+      <c r="E170" s="249"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="25"/>
+      <c r="B171" s="250"/>
+      <c r="C171" s="249"/>
+      <c r="D171" s="249"/>
+      <c r="E171" s="249"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="25"/>
+      <c r="B172" s="250"/>
+      <c r="C172" s="249"/>
+      <c r="D172" s="249"/>
+      <c r="E172" s="249"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="25"/>
+      <c r="B173" s="250"/>
+      <c r="C173" s="249"/>
+      <c r="D173" s="249"/>
+      <c r="E173" s="249"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="25"/>
+      <c r="B174" s="250"/>
+      <c r="C174" s="249"/>
+      <c r="D174" s="249"/>
+      <c r="E174" s="249"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="25"/>
+      <c r="B175" s="250"/>
+      <c r="C175" s="249"/>
+      <c r="D175" s="249"/>
+      <c r="E175" s="249"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="25"/>
+      <c r="B176" s="250"/>
+      <c r="C176" s="249"/>
+      <c r="D176" s="249"/>
+      <c r="E176" s="249"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="25"/>
+      <c r="B177" s="250"/>
+      <c r="C177" s="249"/>
+      <c r="D177" s="249"/>
+      <c r="E177" s="249"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="25"/>
+      <c r="B178" s="250"/>
+      <c r="C178" s="249"/>
+      <c r="D178" s="249"/>
+      <c r="E178" s="249"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="25"/>
+      <c r="B179" s="250"/>
+      <c r="C179" s="249"/>
+      <c r="D179" s="249"/>
+      <c r="E179" s="249"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="25"/>
+      <c r="B180" s="250"/>
+      <c r="C180" s="249"/>
+      <c r="D180" s="249"/>
+      <c r="E180" s="249"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="25"/>
+      <c r="B181" s="250"/>
+      <c r="C181" s="249"/>
+      <c r="D181" s="249"/>
+      <c r="E181" s="249"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="25"/>
+      <c r="B182" s="250"/>
+      <c r="C182" s="249"/>
+      <c r="D182" s="249"/>
+      <c r="E182" s="249"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="25"/>
+      <c r="B183" s="250"/>
+      <c r="C183" s="249"/>
+      <c r="D183" s="249"/>
+      <c r="E183" s="249"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="25"/>
+      <c r="B184" s="250"/>
+      <c r="C184" s="249"/>
+      <c r="D184" s="249"/>
+      <c r="E184" s="249"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="25"/>
+      <c r="B185" s="250"/>
+      <c r="C185" s="249"/>
+      <c r="D185" s="249"/>
+      <c r="E185" s="249"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="25"/>
+      <c r="B186" s="250"/>
+      <c r="C186" s="249"/>
+      <c r="D186" s="249"/>
+      <c r="E186" s="249"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="25"/>
+      <c r="B187" s="250"/>
+      <c r="C187" s="249"/>
+      <c r="D187" s="249"/>
+      <c r="E187" s="249"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="25"/>
+      <c r="B188" s="250"/>
+      <c r="C188" s="249"/>
+      <c r="D188" s="249"/>
+      <c r="E188" s="249"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="25"/>
+      <c r="B189" s="250"/>
+      <c r="C189" s="249"/>
+      <c r="D189" s="249"/>
+      <c r="E189" s="249"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="25"/>
+      <c r="B190" s="250"/>
+      <c r="C190" s="249"/>
+      <c r="D190" s="249"/>
+      <c r="E190" s="249"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="25"/>
+      <c r="B191" s="250"/>
+      <c r="C191" s="249"/>
+      <c r="D191" s="249"/>
+      <c r="E191" s="249"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="25"/>
+      <c r="B192" s="250"/>
+      <c r="C192" s="249"/>
+      <c r="D192" s="249"/>
+      <c r="E192" s="249"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="25"/>
+      <c r="B193" s="250"/>
+      <c r="C193" s="249"/>
+      <c r="D193" s="249"/>
+      <c r="E193" s="249"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="25"/>
+      <c r="B194" s="250"/>
+      <c r="C194" s="249"/>
+      <c r="D194" s="249"/>
+      <c r="E194" s="249"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="25"/>
+      <c r="B195" s="250"/>
+      <c r="C195" s="249"/>
+      <c r="D195" s="249"/>
+      <c r="E195" s="249"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="25"/>
+      <c r="B196" s="250"/>
+      <c r="C196" s="249"/>
+      <c r="D196" s="249"/>
+      <c r="E196" s="249"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="25"/>
+      <c r="B197" s="250"/>
+      <c r="C197" s="249"/>
+      <c r="D197" s="249"/>
+      <c r="E197" s="249"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="25"/>
+      <c r="B198" s="250"/>
+      <c r="C198" s="249"/>
+      <c r="D198" s="249"/>
+      <c r="E198" s="249"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="25"/>
+      <c r="B199" s="250"/>
+      <c r="C199" s="249"/>
+      <c r="D199" s="249"/>
+      <c r="E199" s="249"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="25"/>
+      <c r="B200" s="250"/>
+      <c r="C200" s="249"/>
+      <c r="D200" s="249"/>
+      <c r="E200" s="249"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="25"/>
+      <c r="B201" s="250"/>
+      <c r="C201" s="249"/>
+      <c r="D201" s="249"/>
+      <c r="E201" s="249"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="25"/>
+      <c r="B202" s="250"/>
+      <c r="C202" s="249"/>
+      <c r="D202" s="249"/>
+      <c r="E202" s="249"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="25"/>
+      <c r="B203" s="250"/>
+      <c r="C203" s="249"/>
+      <c r="D203" s="249"/>
+      <c r="E203" s="249"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="25"/>
+      <c r="B204" s="250"/>
+      <c r="C204" s="249"/>
+      <c r="D204" s="249"/>
+      <c r="E204" s="249"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="25"/>
+      <c r="B205" s="250"/>
+      <c r="C205" s="249"/>
+      <c r="D205" s="249"/>
+      <c r="E205" s="249"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="25"/>
+      <c r="B206" s="250"/>
+      <c r="C206" s="249"/>
+      <c r="D206" s="249"/>
+      <c r="E206" s="249"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="25"/>
+      <c r="B207" s="250"/>
+      <c r="C207" s="249"/>
+      <c r="D207" s="249"/>
+      <c r="E207" s="249"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="25"/>
+      <c r="B208" s="250"/>
+      <c r="C208" s="249"/>
+      <c r="D208" s="249"/>
+      <c r="E208" s="249"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="25"/>
+      <c r="B209" s="250"/>
+      <c r="C209" s="249"/>
+      <c r="D209" s="249"/>
+      <c r="E209" s="249"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="25"/>
+      <c r="B210" s="250"/>
+      <c r="C210" s="249"/>
+      <c r="D210" s="249"/>
+      <c r="E210" s="249"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="25"/>
+      <c r="B211" s="250"/>
+      <c r="C211" s="249"/>
+      <c r="D211" s="249"/>
+      <c r="E211" s="249"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="25"/>
+      <c r="B212" s="250"/>
+      <c r="C212" s="249"/>
+      <c r="D212" s="249"/>
+      <c r="E212" s="249"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="25"/>
+      <c r="B213" s="250"/>
+      <c r="C213" s="249"/>
+      <c r="D213" s="249"/>
+      <c r="E213" s="249"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="25"/>
+      <c r="B214" s="250"/>
+      <c r="C214" s="249"/>
+      <c r="D214" s="249"/>
+      <c r="E214" s="249"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="25"/>
+      <c r="B215" s="250"/>
+      <c r="C215" s="249"/>
+      <c r="D215" s="249"/>
+      <c r="E215" s="249"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="25"/>
+      <c r="B216" s="250"/>
+      <c r="C216" s="249"/>
+      <c r="D216" s="249"/>
+      <c r="E216" s="249"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="25"/>
+      <c r="B217" s="250"/>
+      <c r="C217" s="249"/>
+      <c r="D217" s="249"/>
+      <c r="E217" s="249"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="25"/>
+      <c r="B218" s="250"/>
+      <c r="C218" s="249"/>
+      <c r="D218" s="249"/>
+      <c r="E218" s="249"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="25"/>
+      <c r="B219" s="250"/>
+      <c r="C219" s="249"/>
+      <c r="D219" s="249"/>
+      <c r="E219" s="249"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="25"/>
+      <c r="B220" s="250"/>
+      <c r="C220" s="249"/>
+      <c r="D220" s="249"/>
+      <c r="E220" s="249"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="25"/>
+      <c r="B221" s="250"/>
+      <c r="C221" s="249"/>
+      <c r="D221" s="249"/>
+      <c r="E221" s="249"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="25"/>
+      <c r="B222" s="250"/>
+      <c r="C222" s="249"/>
+      <c r="D222" s="249"/>
+      <c r="E222" s="249"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="25"/>
+      <c r="B223" s="250"/>
+      <c r="C223" s="249"/>
+      <c r="D223" s="249"/>
+      <c r="E223" s="249"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="25"/>
+      <c r="B224" s="250"/>
+      <c r="C224" s="249"/>
+      <c r="D224" s="249"/>
+      <c r="E224" s="249"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="25"/>
+      <c r="B225" s="250"/>
+      <c r="C225" s="249"/>
+      <c r="D225" s="249"/>
+      <c r="E225" s="249"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="25"/>
+      <c r="B226" s="250"/>
+      <c r="C226" s="249"/>
+      <c r="D226" s="249"/>
+      <c r="E226" s="249"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="25"/>
+      <c r="B227" s="250"/>
+      <c r="C227" s="249"/>
+      <c r="D227" s="249"/>
+      <c r="E227" s="249"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="25"/>
+      <c r="B228" s="250"/>
+      <c r="C228" s="249"/>
+      <c r="D228" s="249"/>
+      <c r="E228" s="249"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="25"/>
+      <c r="B229" s="250"/>
+      <c r="C229" s="249"/>
+      <c r="D229" s="249"/>
+      <c r="E229" s="249"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="25"/>
+      <c r="B230" s="250"/>
+      <c r="C230" s="249"/>
+      <c r="D230" s="249"/>
+      <c r="E230" s="249"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="25"/>
+      <c r="B231" s="250"/>
+      <c r="C231" s="249"/>
+      <c r="D231" s="249"/>
+      <c r="E231" s="249"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="25"/>
+      <c r="B232" s="250"/>
+      <c r="C232" s="249"/>
+      <c r="D232" s="249"/>
+      <c r="E232" s="249"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="25"/>
+      <c r="B233" s="250"/>
+      <c r="C233" s="249"/>
+      <c r="D233" s="249"/>
+      <c r="E233" s="249"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="25"/>
+      <c r="B234" s="250"/>
+      <c r="C234" s="249"/>
+      <c r="D234" s="249"/>
+      <c r="E234" s="249"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="25"/>
+      <c r="B235" s="250"/>
+      <c r="C235" s="249"/>
+      <c r="D235" s="249"/>
+      <c r="E235" s="249"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="25"/>
+      <c r="B236" s="250"/>
+      <c r="C236" s="249"/>
+      <c r="D236" s="249"/>
+      <c r="E236" s="249"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="25"/>
+      <c r="B237" s="250"/>
+      <c r="C237" s="249"/>
+      <c r="D237" s="249"/>
+      <c r="E237" s="249"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="25"/>
+      <c r="B238" s="250"/>
+      <c r="C238" s="249"/>
+      <c r="D238" s="249"/>
+      <c r="E238" s="249"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="25"/>
+      <c r="B239" s="250"/>
+      <c r="C239" s="249"/>
+      <c r="D239" s="249"/>
+      <c r="E239" s="249"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="25"/>
+      <c r="B240" s="250"/>
+      <c r="C240" s="249"/>
+      <c r="D240" s="249"/>
+      <c r="E240" s="249"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="25"/>
+      <c r="B241" s="250"/>
+      <c r="C241" s="249"/>
+      <c r="D241" s="249"/>
+      <c r="E241" s="249"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="25"/>
+      <c r="B242" s="250"/>
+      <c r="C242" s="249"/>
+      <c r="D242" s="249"/>
+      <c r="E242" s="249"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="25"/>
+      <c r="B243" s="250"/>
+      <c r="C243" s="249"/>
+      <c r="D243" s="249"/>
+      <c r="E243" s="249"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="25"/>
+      <c r="B244" s="250"/>
+      <c r="C244" s="249"/>
+      <c r="D244" s="249"/>
+      <c r="E244" s="249"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="25"/>
+      <c r="B245" s="250"/>
+      <c r="C245" s="249"/>
+      <c r="D245" s="249"/>
+      <c r="E245" s="249"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="25"/>
+      <c r="B246" s="250"/>
+      <c r="C246" s="249"/>
+      <c r="D246" s="249"/>
+      <c r="E246" s="249"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="25"/>
+      <c r="B247" s="250"/>
+      <c r="C247" s="249"/>
+      <c r="D247" s="249"/>
+      <c r="E247" s="249"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="25"/>
+      <c r="B248" s="250"/>
+      <c r="C248" s="249"/>
+      <c r="D248" s="249"/>
+      <c r="E248" s="249"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="25"/>
+      <c r="B249" s="250"/>
+      <c r="C249" s="249"/>
+      <c r="D249" s="249"/>
+      <c r="E249" s="249"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="25"/>
+      <c r="B250" s="250"/>
+      <c r="C250" s="249"/>
+      <c r="D250" s="249"/>
+      <c r="E250" s="249"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="25"/>
+      <c r="B251" s="250"/>
+      <c r="C251" s="249"/>
+      <c r="D251" s="249"/>
+      <c r="E251" s="249"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="25"/>
+      <c r="B252" s="250"/>
+      <c r="C252" s="249"/>
+      <c r="D252" s="249"/>
+      <c r="E252" s="249"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="25"/>
+      <c r="B253" s="250"/>
+      <c r="C253" s="249"/>
+      <c r="D253" s="249"/>
+      <c r="E253" s="249"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="25"/>
+      <c r="B254" s="250"/>
+      <c r="C254" s="249"/>
+      <c r="D254" s="249"/>
+      <c r="E254" s="249"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="25"/>
+      <c r="B255" s="250"/>
+      <c r="C255" s="249"/>
+      <c r="D255" s="249"/>
+      <c r="E255" s="249"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="25"/>
+      <c r="B256" s="250"/>
+      <c r="C256" s="249"/>
+      <c r="D256" s="249"/>
+      <c r="E256" s="249"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="25"/>
+      <c r="B257" s="250"/>
+      <c r="C257" s="249"/>
+      <c r="D257" s="249"/>
+      <c r="E257" s="249"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="25"/>
+      <c r="B258" s="250"/>
+      <c r="C258" s="249"/>
+      <c r="D258" s="249"/>
+      <c r="E258" s="249"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="25"/>
+      <c r="B259" s="250"/>
+      <c r="C259" s="249"/>
+      <c r="D259" s="249"/>
+      <c r="E259" s="249"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="25"/>
+      <c r="B260" s="250"/>
+      <c r="C260" s="249"/>
+      <c r="D260" s="249"/>
+      <c r="E260" s="249"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="25"/>
+      <c r="B261" s="250"/>
+      <c r="C261" s="249"/>
+      <c r="D261" s="249"/>
+      <c r="E261" s="249"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="25"/>
+      <c r="B262" s="250"/>
+      <c r="C262" s="249"/>
+      <c r="D262" s="249"/>
+      <c r="E262" s="249"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="25"/>
+      <c r="B263" s="250"/>
+      <c r="C263" s="249"/>
+      <c r="D263" s="249"/>
+      <c r="E263" s="249"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="25"/>
+      <c r="B264" s="250"/>
+      <c r="C264" s="249"/>
+      <c r="D264" s="249"/>
+      <c r="E264" s="249"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="25"/>
+      <c r="B265" s="250"/>
+      <c r="C265" s="249"/>
+      <c r="D265" s="249"/>
+      <c r="E265" s="249"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="25"/>
+      <c r="B266" s="250"/>
+      <c r="C266" s="249"/>
+      <c r="D266" s="249"/>
+      <c r="E266" s="249"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="25"/>
+      <c r="B267" s="250"/>
+      <c r="C267" s="249"/>
+      <c r="D267" s="249"/>
+      <c r="E267" s="249"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="25"/>
+      <c r="B268" s="250"/>
+      <c r="C268" s="249"/>
+      <c r="D268" s="249"/>
+      <c r="E268" s="249"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="25"/>
+      <c r="B269" s="250"/>
+      <c r="C269" s="249"/>
+      <c r="D269" s="249"/>
+      <c r="E269" s="249"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="25"/>
+      <c r="B270" s="250"/>
+      <c r="C270" s="249"/>
+      <c r="D270" s="249"/>
+      <c r="E270" s="249"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="25"/>
+      <c r="B271" s="250"/>
+      <c r="C271" s="249"/>
+      <c r="D271" s="249"/>
+      <c r="E271" s="249"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="25"/>
+      <c r="B272" s="250"/>
+      <c r="C272" s="249"/>
+      <c r="D272" s="249"/>
+      <c r="E272" s="249"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="25"/>
+      <c r="B273" s="250"/>
+      <c r="C273" s="249"/>
+      <c r="D273" s="249"/>
+      <c r="E273" s="249"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="25"/>
+      <c r="B274" s="250"/>
+      <c r="C274" s="249"/>
+      <c r="D274" s="249"/>
+      <c r="E274" s="249"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="25"/>
+      <c r="B275" s="250"/>
+      <c r="C275" s="249"/>
+      <c r="D275" s="249"/>
+      <c r="E275" s="249"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="25"/>
+      <c r="B276" s="250"/>
+      <c r="C276" s="249"/>
+      <c r="D276" s="249"/>
+      <c r="E276" s="249"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="25"/>
+      <c r="B277" s="250"/>
+      <c r="C277" s="249"/>
+      <c r="D277" s="249"/>
+      <c r="E277" s="249"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="25"/>
+      <c r="B278" s="250"/>
+      <c r="C278" s="249"/>
+      <c r="D278" s="249"/>
+      <c r="E278" s="249"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="25"/>
+      <c r="B279" s="250"/>
+      <c r="C279" s="249"/>
+      <c r="D279" s="249"/>
+      <c r="E279" s="249"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="25"/>
+      <c r="B280" s="250"/>
+      <c r="C280" s="249"/>
+      <c r="D280" s="249"/>
+      <c r="E280" s="249"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="25"/>
+      <c r="B281" s="250"/>
+      <c r="C281" s="249"/>
+      <c r="D281" s="249"/>
+      <c r="E281" s="249"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="25"/>
+      <c r="B282" s="250"/>
+      <c r="C282" s="249"/>
+      <c r="D282" s="249"/>
+      <c r="E282" s="249"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="25"/>
+      <c r="B283" s="250"/>
+      <c r="C283" s="249"/>
+      <c r="D283" s="249"/>
+      <c r="E283" s="249"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="25"/>
+      <c r="B284" s="250"/>
+      <c r="C284" s="249"/>
+      <c r="D284" s="249"/>
+      <c r="E284" s="249"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="25"/>
+      <c r="B285" s="250"/>
+      <c r="C285" s="249"/>
+      <c r="D285" s="249"/>
+      <c r="E285" s="249"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="25"/>
+      <c r="B286" s="250"/>
+      <c r="C286" s="249"/>
+      <c r="D286" s="249"/>
+      <c r="E286" s="249"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="25"/>
+      <c r="B287" s="250"/>
+      <c r="C287" s="249"/>
+      <c r="D287" s="249"/>
+      <c r="E287" s="249"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="25"/>
+      <c r="B288" s="250"/>
+      <c r="C288" s="249"/>
+      <c r="D288" s="249"/>
+      <c r="E288" s="249"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="25"/>
+      <c r="B289" s="250"/>
+      <c r="C289" s="249"/>
+      <c r="D289" s="249"/>
+      <c r="E289" s="249"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="25"/>
+      <c r="B290" s="250"/>
+      <c r="C290" s="249"/>
+      <c r="D290" s="249"/>
+      <c r="E290" s="249"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="25"/>
+      <c r="B291" s="250"/>
+      <c r="C291" s="249"/>
+      <c r="D291" s="249"/>
+      <c r="E291" s="249"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="25"/>
+      <c r="B292" s="250"/>
+      <c r="C292" s="249"/>
+      <c r="D292" s="249"/>
+      <c r="E292" s="249"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="25"/>
+      <c r="B293" s="250"/>
+      <c r="C293" s="249"/>
+      <c r="D293" s="249"/>
+      <c r="E293" s="249"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="25"/>
+      <c r="B294" s="250"/>
+      <c r="C294" s="249"/>
+      <c r="D294" s="249"/>
+      <c r="E294" s="249"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="25"/>
+      <c r="B295" s="250"/>
+      <c r="C295" s="249"/>
+      <c r="D295" s="249"/>
+      <c r="E295" s="249"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="25"/>
+      <c r="B296" s="250"/>
+      <c r="C296" s="249"/>
+      <c r="D296" s="249"/>
+      <c r="E296" s="249"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="25"/>
+      <c r="B297" s="250"/>
+      <c r="C297" s="249"/>
+      <c r="D297" s="249"/>
+      <c r="E297" s="249"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="25"/>
+      <c r="B298" s="250"/>
+      <c r="C298" s="249"/>
+      <c r="D298" s="249"/>
+      <c r="E298" s="249"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="25"/>
+      <c r="B299" s="250"/>
+      <c r="C299" s="249"/>
+      <c r="D299" s="249"/>
+      <c r="E299" s="249"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="25"/>
+      <c r="B300" s="250"/>
+      <c r="C300" s="249"/>
+      <c r="D300" s="249"/>
+      <c r="E300" s="249"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="25"/>
+      <c r="B301" s="250"/>
+      <c r="C301" s="249"/>
+      <c r="D301" s="249"/>
+      <c r="E301" s="249"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="25"/>
+      <c r="B302" s="250"/>
+      <c r="C302" s="249"/>
+      <c r="D302" s="249"/>
+      <c r="E302" s="249"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="25"/>
+      <c r="B303" s="250"/>
+      <c r="C303" s="249"/>
+      <c r="D303" s="249"/>
+      <c r="E303" s="249"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="25"/>
+      <c r="B304" s="250"/>
+      <c r="C304" s="249"/>
+      <c r="D304" s="249"/>
+      <c r="E304" s="249"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="25"/>
+      <c r="B305" s="250"/>
+      <c r="C305" s="249"/>
+      <c r="D305" s="249"/>
+      <c r="E305" s="249"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="25"/>
+      <c r="B306" s="250"/>
+      <c r="C306" s="249"/>
+      <c r="D306" s="249"/>
+      <c r="E306" s="249"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="25"/>
+      <c r="B307" s="250"/>
+      <c r="C307" s="249"/>
+      <c r="D307" s="249"/>
+      <c r="E307" s="249"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="25"/>
+      <c r="B308" s="250"/>
+      <c r="C308" s="249"/>
+      <c r="D308" s="249"/>
+      <c r="E308" s="249"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="25"/>
+      <c r="B309" s="250"/>
+      <c r="C309" s="249"/>
+      <c r="D309" s="249"/>
+      <c r="E309" s="249"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="25"/>
+      <c r="B310" s="250"/>
+      <c r="C310" s="249"/>
+      <c r="D310" s="249"/>
+      <c r="E310" s="249"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="25"/>
+      <c r="B311" s="250"/>
+      <c r="C311" s="249"/>
+      <c r="D311" s="249"/>
+      <c r="E311" s="249"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="25"/>
+      <c r="B312" s="250"/>
+      <c r="C312" s="249"/>
+      <c r="D312" s="249"/>
+      <c r="E312" s="249"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="25"/>
+      <c r="B313" s="250"/>
+      <c r="C313" s="249"/>
+      <c r="D313" s="249"/>
+      <c r="E313" s="249"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="25"/>
+      <c r="B314" s="250"/>
+      <c r="C314" s="249"/>
+      <c r="D314" s="249"/>
+      <c r="E314" s="249"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="25"/>
+      <c r="B315" s="250"/>
+      <c r="C315" s="249"/>
+      <c r="D315" s="249"/>
+      <c r="E315" s="249"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="25"/>
+      <c r="B316" s="250"/>
+      <c r="C316" s="249"/>
+      <c r="D316" s="249"/>
+      <c r="E316" s="249"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="25"/>
+      <c r="B317" s="250"/>
+      <c r="C317" s="249"/>
+      <c r="D317" s="249"/>
+      <c r="E317" s="249"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="25"/>
+      <c r="B318" s="250"/>
+      <c r="C318" s="249"/>
+      <c r="D318" s="249"/>
+      <c r="E318" s="249"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="25"/>
+      <c r="B319" s="250"/>
+      <c r="C319" s="249"/>
+      <c r="D319" s="249"/>
+      <c r="E319" s="249"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="25"/>
+      <c r="B320" s="250"/>
+      <c r="C320" s="249"/>
+      <c r="D320" s="249"/>
+      <c r="E320" s="249"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="Q4:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -19865,8 +19865,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
